--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4404.993046928245</v>
+        <v>4563.45051405149</v>
       </c>
       <c r="AB2" t="n">
-        <v>6027.105821385356</v>
+        <v>6243.914318553466</v>
       </c>
       <c r="AC2" t="n">
-        <v>5451.887300888258</v>
+        <v>5648.003899379272</v>
       </c>
       <c r="AD2" t="n">
-        <v>4404993.046928246</v>
+        <v>4563450.51405149</v>
       </c>
       <c r="AE2" t="n">
-        <v>6027105.821385356</v>
+        <v>6243914.318553465</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.201371951941282e-07</v>
+        <v>1.147416171974979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>5451887.300888258</v>
+        <v>5648003.899379272</v>
       </c>
     </row>
     <row r="3">
@@ -6658,28 +6658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2070.574913573475</v>
+        <v>2167.969126282308</v>
       </c>
       <c r="AB3" t="n">
-        <v>2833.051944069444</v>
+        <v>2966.311002627087</v>
       </c>
       <c r="AC3" t="n">
-        <v>2562.669442740832</v>
+        <v>2683.210443779997</v>
       </c>
       <c r="AD3" t="n">
-        <v>2070574.913573474</v>
+        <v>2167969.126282308</v>
       </c>
       <c r="AE3" t="n">
-        <v>2833051.944069444</v>
+        <v>2966311.002627086</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.866922431212807e-07</v>
+        <v>1.825638980040888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.40201822916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2562669.442740832</v>
+        <v>2683210.443779997</v>
       </c>
     </row>
     <row r="4">
@@ -6764,28 +6764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1678.227457146475</v>
+        <v>1763.42606924163</v>
       </c>
       <c r="AB4" t="n">
-        <v>2296.224845037866</v>
+        <v>2412.797344803947</v>
       </c>
       <c r="AC4" t="n">
-        <v>2077.076368599262</v>
+        <v>2182.523352598198</v>
       </c>
       <c r="AD4" t="n">
-        <v>1678227.457146476</v>
+        <v>1763426.06924163</v>
       </c>
       <c r="AE4" t="n">
-        <v>2296224.845037865</v>
+        <v>2412797.344803947</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.128608614198528e-06</v>
+        <v>2.088221422287496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.46516927083333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2077076.368599262</v>
+        <v>2182523.352598199</v>
       </c>
     </row>
     <row r="5">
@@ -6870,28 +6870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1510.809859989215</v>
+        <v>1596.093723430391</v>
       </c>
       <c r="AB5" t="n">
-        <v>2067.156702664189</v>
+        <v>2183.84584708292</v>
       </c>
       <c r="AC5" t="n">
-        <v>1869.870168234572</v>
+        <v>1975.422664484222</v>
       </c>
       <c r="AD5" t="n">
-        <v>1510809.859989215</v>
+        <v>1596093.723430391</v>
       </c>
       <c r="AE5" t="n">
-        <v>2067156.702664189</v>
+        <v>2183845.847082919</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.205822323988583e-06</v>
+        <v>2.231087001062459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.6025390625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1869870.168234572</v>
+        <v>1975422.664484222</v>
       </c>
     </row>
     <row r="6">
@@ -6976,28 +6976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1426.314177750713</v>
+        <v>1499.402530086762</v>
       </c>
       <c r="AB6" t="n">
-        <v>1951.545982539058</v>
+        <v>2051.548690635776</v>
       </c>
       <c r="AC6" t="n">
-        <v>1765.293172977518</v>
+        <v>1855.751762968167</v>
       </c>
       <c r="AD6" t="n">
-        <v>1426314.177750713</v>
+        <v>1499402.530086762</v>
       </c>
       <c r="AE6" t="n">
-        <v>1951545.982539058</v>
+        <v>2051548.690635775</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.253065536991929e-06</v>
+        <v>2.318499314073501e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.12727864583333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1765293.172977519</v>
+        <v>1855751.762968167</v>
       </c>
     </row>
     <row r="7">
@@ -7082,28 +7082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1358.060937217874</v>
+        <v>1431.234540899944</v>
       </c>
       <c r="AB7" t="n">
-        <v>1858.158887721569</v>
+        <v>1958.278240470936</v>
       </c>
       <c r="AC7" t="n">
-        <v>1680.8188114198</v>
+        <v>1771.382913661162</v>
       </c>
       <c r="AD7" t="n">
-        <v>1358060.937217874</v>
+        <v>1431234.540899944</v>
       </c>
       <c r="AE7" t="n">
-        <v>1858158.887721569</v>
+        <v>1958278.240470936</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.286117112887551e-06</v>
+        <v>2.379653382859882e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.81477864583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1680818.8114198</v>
+        <v>1771382.913661162</v>
       </c>
     </row>
     <row r="8">
@@ -7188,28 +7188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1318.276482498446</v>
+        <v>1391.450086180515</v>
       </c>
       <c r="AB8" t="n">
-        <v>1803.724041608178</v>
+        <v>1903.843394357545</v>
       </c>
       <c r="AC8" t="n">
-        <v>1631.579150619685</v>
+        <v>1722.143252861046</v>
       </c>
       <c r="AD8" t="n">
-        <v>1318276.482498446</v>
+        <v>1391450.086180515</v>
       </c>
       <c r="AE8" t="n">
-        <v>1803724.041608178</v>
+        <v>1903843.394357545</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.309925451456432e-06</v>
+        <v>2.423705042578885e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.6015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1631579.150619685</v>
+        <v>1722143.252861046</v>
       </c>
     </row>
     <row r="9">
@@ -7294,28 +7294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1289.673018284311</v>
+        <v>1362.676029765788</v>
       </c>
       <c r="AB9" t="n">
-        <v>1764.587519974619</v>
+        <v>1864.473460949139</v>
       </c>
       <c r="AC9" t="n">
-        <v>1596.17776368238</v>
+        <v>1686.53073064109</v>
       </c>
       <c r="AD9" t="n">
-        <v>1289673.018284312</v>
+        <v>1362676.029765788</v>
       </c>
       <c r="AE9" t="n">
-        <v>1764587.519974618</v>
+        <v>1864473.460949139</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.326544605437846e-06</v>
+        <v>2.454454828578817e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.455078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1596177.76368238</v>
+        <v>1686530.73064109</v>
       </c>
     </row>
     <row r="10">
@@ -7400,28 +7400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1263.668980172528</v>
+        <v>1336.671991654006</v>
       </c>
       <c r="AB10" t="n">
-        <v>1729.007647812882</v>
+        <v>1828.893588787402</v>
       </c>
       <c r="AC10" t="n">
-        <v>1563.993584583095</v>
+        <v>1654.346551541805</v>
       </c>
       <c r="AD10" t="n">
-        <v>1263668.980172528</v>
+        <v>1336671.991654006</v>
       </c>
       <c r="AE10" t="n">
-        <v>1729007.647812882</v>
+        <v>1828893.588787402</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.341950000982416e-06</v>
+        <v>2.482958843691113e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.32486979166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1563993.584583095</v>
+        <v>1654346.551541805</v>
       </c>
     </row>
     <row r="11">
@@ -7506,28 +7506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1243.969611160852</v>
+        <v>1316.972622642328</v>
       </c>
       <c r="AB11" t="n">
-        <v>1702.054102056281</v>
+        <v>1801.940043030801</v>
       </c>
       <c r="AC11" t="n">
-        <v>1539.612447403965</v>
+        <v>1629.965414362675</v>
       </c>
       <c r="AD11" t="n">
-        <v>1243969.611160852</v>
+        <v>1316972.622642328</v>
       </c>
       <c r="AE11" t="n">
-        <v>1702054.102056281</v>
+        <v>1801940.043030801</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.353247291048433e-06</v>
+        <v>2.503861788106797e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.23046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1539612.447403965</v>
+        <v>1629965.414362675</v>
       </c>
     </row>
     <row r="12">
@@ -7612,28 +7612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1226.939391734528</v>
+        <v>1287.91748431147</v>
       </c>
       <c r="AB12" t="n">
-        <v>1678.75260451693</v>
+        <v>1762.185520944284</v>
       </c>
       <c r="AC12" t="n">
-        <v>1518.534812085912</v>
+        <v>1594.005008068273</v>
       </c>
       <c r="AD12" t="n">
-        <v>1226939.391734528</v>
+        <v>1287917.48431147</v>
       </c>
       <c r="AE12" t="n">
-        <v>1678752.60451693</v>
+        <v>1762185.520944284</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.362023698207158e-06</v>
+        <v>2.520100439140469e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.1572265625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1518534.812085912</v>
+        <v>1594005.008068273</v>
       </c>
     </row>
     <row r="13">
@@ -7718,28 +7718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1210.942196419839</v>
+        <v>1271.92028899678</v>
       </c>
       <c r="AB13" t="n">
-        <v>1656.864536140923</v>
+        <v>1740.297452568277</v>
       </c>
       <c r="AC13" t="n">
-        <v>1498.735710235615</v>
+        <v>1574.205906217975</v>
       </c>
       <c r="AD13" t="n">
-        <v>1210942.196419839</v>
+        <v>1271920.28899678</v>
       </c>
       <c r="AE13" t="n">
-        <v>1656864.536140923</v>
+        <v>1740297.452568277</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.370053177097055e-06</v>
+        <v>2.534957077320211e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.09212239583333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1498735.710235615</v>
+        <v>1574205.906217975</v>
       </c>
     </row>
     <row r="14">
@@ -7824,28 +7824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1194.693083034981</v>
+        <v>1255.671175611922</v>
       </c>
       <c r="AB14" t="n">
-        <v>1634.631782347472</v>
+        <v>1718.064698774826</v>
       </c>
       <c r="AC14" t="n">
-        <v>1478.624819260344</v>
+        <v>1554.095015242705</v>
       </c>
       <c r="AD14" t="n">
-        <v>1194693.083034981</v>
+        <v>1255671.175611922</v>
       </c>
       <c r="AE14" t="n">
-        <v>1634631.782347472</v>
+        <v>1718064.698774826</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.378362754087762e-06</v>
+        <v>2.550331970320177e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.025390625</v>
       </c>
       <c r="AH14" t="n">
-        <v>1478624.819260344</v>
+        <v>1554095.015242705</v>
       </c>
     </row>
     <row r="15">
@@ -7930,28 +7930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1172.596956368845</v>
+        <v>1245.685219196342</v>
       </c>
       <c r="AB15" t="n">
-        <v>1604.398887030555</v>
+        <v>1704.401472657724</v>
       </c>
       <c r="AC15" t="n">
-        <v>1451.277309040339</v>
+        <v>1541.735788249761</v>
       </c>
       <c r="AD15" t="n">
-        <v>1172596.956368845</v>
+        <v>1245685.219196342</v>
       </c>
       <c r="AE15" t="n">
-        <v>1604398.887030555</v>
+        <v>1704401.472657724</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.3820973954319e-06</v>
+        <v>2.557242034589824e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.99609375</v>
       </c>
       <c r="AH15" t="n">
-        <v>1451277.309040339</v>
+        <v>1541735.788249761</v>
       </c>
     </row>
     <row r="16">
@@ -8036,28 +8036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1158.388623070902</v>
+        <v>1231.476885898399</v>
       </c>
       <c r="AB16" t="n">
-        <v>1584.958418584884</v>
+        <v>1684.961004212053</v>
       </c>
       <c r="AC16" t="n">
-        <v>1433.692211618253</v>
+        <v>1524.150690827676</v>
       </c>
       <c r="AD16" t="n">
-        <v>1158388.623070902</v>
+        <v>1231476.885898399</v>
       </c>
       <c r="AE16" t="n">
-        <v>1584958.418584884</v>
+        <v>1684961.004212053</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.388726383817745e-06</v>
+        <v>2.569507398668449e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.9423828125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1433692.211618253</v>
+        <v>1524150.690827676</v>
       </c>
     </row>
     <row r="17">
@@ -8142,28 +8142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1148.982466966528</v>
+        <v>1222.070729794026</v>
       </c>
       <c r="AB17" t="n">
-        <v>1572.08850083256</v>
+        <v>1672.091086459729</v>
       </c>
       <c r="AC17" t="n">
-        <v>1422.050580753168</v>
+        <v>1512.509059962591</v>
       </c>
       <c r="AD17" t="n">
-        <v>1148982.466966528</v>
+        <v>1222070.729794026</v>
       </c>
       <c r="AE17" t="n">
-        <v>1572088.50083256</v>
+        <v>1672091.086459729</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.391714096893055e-06</v>
+        <v>2.575035450084167e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.91959635416667</v>
       </c>
       <c r="AH17" t="n">
-        <v>1422050.580753168</v>
+        <v>1512509.059962591</v>
       </c>
     </row>
     <row r="18">
@@ -8248,28 +8248,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1137.201380889861</v>
+        <v>1210.289643717358</v>
       </c>
       <c r="AB18" t="n">
-        <v>1555.969099117627</v>
+        <v>1655.971684744796</v>
       </c>
       <c r="AC18" t="n">
-        <v>1407.469592114186</v>
+        <v>1497.928071323609</v>
       </c>
       <c r="AD18" t="n">
-        <v>1137201.380889861</v>
+        <v>1210289.643717358</v>
       </c>
       <c r="AE18" t="n">
-        <v>1555969.099117627</v>
+        <v>1655971.684744796</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.396662496674038e-06</v>
+        <v>2.58419128524145e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.88053385416667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1407469.592114186</v>
+        <v>1497928.071323609</v>
       </c>
     </row>
     <row r="19">
@@ -8354,28 +8354,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1127.88210873591</v>
+        <v>1200.970371563408</v>
       </c>
       <c r="AB19" t="n">
-        <v>1543.218059819321</v>
+        <v>1643.220645446491</v>
       </c>
       <c r="AC19" t="n">
-        <v>1395.935494110315</v>
+        <v>1486.393973319737</v>
       </c>
       <c r="AD19" t="n">
-        <v>1127882.10873591</v>
+        <v>1200970.371563408</v>
       </c>
       <c r="AE19" t="n">
-        <v>1543218.059819321</v>
+        <v>1643220.64544649</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.399743575782952e-06</v>
+        <v>2.589892088263909e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.85611979166667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1395935.494110315</v>
+        <v>1486393.973319737</v>
       </c>
     </row>
     <row r="20">
@@ -8460,28 +8460,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1117.595250673232</v>
+        <v>1190.68351350073</v>
       </c>
       <c r="AB20" t="n">
-        <v>1529.143126793817</v>
+        <v>1629.145712420986</v>
       </c>
       <c r="AC20" t="n">
-        <v>1383.203852938472</v>
+        <v>1473.662332147894</v>
       </c>
       <c r="AD20" t="n">
-        <v>1117595.250673232</v>
+        <v>1190683.51350073</v>
       </c>
       <c r="AE20" t="n">
-        <v>1529143.126793817</v>
+        <v>1629145.712420986</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.403104752992676e-06</v>
+        <v>2.596111146106592e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.830078125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1383203.852938472</v>
+        <v>1473662.332147894</v>
       </c>
     </row>
     <row r="21">
@@ -8566,28 +8566,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1108.045470473978</v>
+        <v>1181.133733301476</v>
       </c>
       <c r="AB21" t="n">
-        <v>1516.076696218629</v>
+        <v>1616.079281845799</v>
       </c>
       <c r="AC21" t="n">
-        <v>1371.38446415853</v>
+        <v>1461.842943367953</v>
       </c>
       <c r="AD21" t="n">
-        <v>1108045.470473978</v>
+        <v>1181133.733301476</v>
       </c>
       <c r="AE21" t="n">
-        <v>1516076.696218629</v>
+        <v>1616079.281845799</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.40618583210159e-06</v>
+        <v>2.601811949129051e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1371384.46415853</v>
+        <v>1461842.943367952</v>
       </c>
     </row>
     <row r="22">
@@ -8672,28 +8672,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1100.543154905007</v>
+        <v>1173.631417732504</v>
       </c>
       <c r="AB22" t="n">
-        <v>1505.811697078359</v>
+        <v>1605.814282705529</v>
       </c>
       <c r="AC22" t="n">
-        <v>1362.09914212919</v>
+        <v>1452.557621338613</v>
       </c>
       <c r="AD22" t="n">
-        <v>1100543.154905007</v>
+        <v>1173631.417732504</v>
       </c>
       <c r="AE22" t="n">
-        <v>1505811.697078359</v>
+        <v>1605814.282705528</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.407866420706453e-06</v>
+        <v>2.604921478050393e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.79427083333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1362099.14212919</v>
+        <v>1452557.621338613</v>
       </c>
     </row>
     <row r="23">
@@ -8778,28 +8778,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1089.399486770392</v>
+        <v>1162.487749597889</v>
       </c>
       <c r="AB23" t="n">
-        <v>1490.564438712638</v>
+        <v>1590.567024339807</v>
       </c>
       <c r="AC23" t="n">
-        <v>1348.307060702232</v>
+        <v>1438.765539911655</v>
       </c>
       <c r="AD23" t="n">
-        <v>1089399.486770392</v>
+        <v>1162487.749597889</v>
       </c>
       <c r="AE23" t="n">
-        <v>1490564.438712638</v>
+        <v>1590567.024339807</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.41132096394978e-06</v>
+        <v>2.611313287499817e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1348307.060702232</v>
+        <v>1438765.539911655</v>
       </c>
     </row>
     <row r="24">
@@ -8884,28 +8884,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1082.371833439962</v>
+        <v>1155.460096267459</v>
       </c>
       <c r="AB24" t="n">
-        <v>1480.94889338776</v>
+        <v>1580.951479014929</v>
       </c>
       <c r="AC24" t="n">
-        <v>1339.609209527658</v>
+        <v>1430.067688737081</v>
       </c>
       <c r="AD24" t="n">
-        <v>1082371.833439962</v>
+        <v>1155460.096267459</v>
       </c>
       <c r="AE24" t="n">
-        <v>1480948.89338776</v>
+        <v>1580951.479014929</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.412628088420229e-06</v>
+        <v>2.613731809994193e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.75846354166667</v>
       </c>
       <c r="AH24" t="n">
-        <v>1339609.209527658</v>
+        <v>1430067.68873708</v>
       </c>
     </row>
     <row r="25">
@@ -8990,28 +8990,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1076.082115585291</v>
+        <v>1149.170378412788</v>
       </c>
       <c r="AB25" t="n">
-        <v>1472.343023936231</v>
+        <v>1572.3456095634</v>
       </c>
       <c r="AC25" t="n">
-        <v>1331.824672178169</v>
+        <v>1422.283151387592</v>
       </c>
       <c r="AD25" t="n">
-        <v>1076082.115585291</v>
+        <v>1149170.378412788</v>
       </c>
       <c r="AE25" t="n">
-        <v>1472343.023936231</v>
+        <v>1572345.6095634</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.414121944957884e-06</v>
+        <v>2.616495835702052e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.74544270833333</v>
       </c>
       <c r="AH25" t="n">
-        <v>1331824.672178169</v>
+        <v>1422283.151387592</v>
       </c>
     </row>
     <row r="26">
@@ -9096,28 +9096,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>1072.217140631605</v>
+        <v>1145.305403459102</v>
       </c>
       <c r="AB26" t="n">
-        <v>1467.054794693937</v>
+        <v>1567.057380321107</v>
       </c>
       <c r="AC26" t="n">
-        <v>1327.041144112684</v>
+        <v>1417.499623322106</v>
       </c>
       <c r="AD26" t="n">
-        <v>1072217.140631605</v>
+        <v>1145305.403459102</v>
       </c>
       <c r="AE26" t="n">
-        <v>1467054.794693937</v>
+        <v>1567057.380321107</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.415615801495539e-06</v>
+        <v>2.619259861409911e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>10.73567708333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>1327041.144112684</v>
+        <v>1417499.623322106</v>
       </c>
     </row>
     <row r="27">
@@ -9202,28 +9202,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>1076.318641181754</v>
+        <v>1149.406904009251</v>
       </c>
       <c r="AB27" t="n">
-        <v>1472.666648692085</v>
+        <v>1572.669234319254</v>
       </c>
       <c r="AC27" t="n">
-        <v>1332.117410641534</v>
+        <v>1422.575889850957</v>
       </c>
       <c r="AD27" t="n">
-        <v>1076318.641181754</v>
+        <v>1149406.904009251</v>
       </c>
       <c r="AE27" t="n">
-        <v>1472666.648692085</v>
+        <v>1572669.234319254</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.415709167529142e-06</v>
+        <v>2.619432613016652e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>11</v>
+        <v>10.73404947916667</v>
       </c>
       <c r="AH27" t="n">
-        <v>1332117.410641534</v>
+        <v>1422575.889850957</v>
       </c>
     </row>
   </sheetData>
@@ -9499,28 +9499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3045.893336722187</v>
+        <v>3175.208829327506</v>
       </c>
       <c r="AB2" t="n">
-        <v>4167.525638633816</v>
+        <v>4344.460800613318</v>
       </c>
       <c r="AC2" t="n">
-        <v>3769.782840841417</v>
+        <v>3929.831559291648</v>
       </c>
       <c r="AD2" t="n">
-        <v>3045893.336722187</v>
+        <v>3175208.829327506</v>
       </c>
       <c r="AE2" t="n">
-        <v>4167525.638633816</v>
+        <v>4344460.800613318</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.617726422883055e-07</v>
+        <v>1.452056222400603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.63639322916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3769782.840841417</v>
+        <v>3929831.559291648</v>
       </c>
     </row>
     <row r="3">
@@ -9605,28 +9605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1668.074352986864</v>
+        <v>1750.335086569864</v>
       </c>
       <c r="AB3" t="n">
-        <v>2282.332920003342</v>
+        <v>2394.88568477904</v>
       </c>
       <c r="AC3" t="n">
-        <v>2064.510269392594</v>
+        <v>2166.321156266898</v>
       </c>
       <c r="AD3" t="n">
-        <v>1668074.352986864</v>
+        <v>1750335.086569864</v>
       </c>
       <c r="AE3" t="n">
-        <v>2282332.920003342</v>
+        <v>2394885.68477904</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10281729804081e-06</v>
+        <v>2.102139970504638e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.25455729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2064510.269392594</v>
+        <v>2166321.156266897</v>
       </c>
     </row>
     <row r="4">
@@ -9711,28 +9711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1393.341220527843</v>
+        <v>1475.601864602292</v>
       </c>
       <c r="AB4" t="n">
-        <v>1906.430927802519</v>
+        <v>2018.983570108668</v>
       </c>
       <c r="AC4" t="n">
-        <v>1724.483835745658</v>
+        <v>1826.294611838734</v>
       </c>
       <c r="AD4" t="n">
-        <v>1393341.220527843</v>
+        <v>1475601.864602292</v>
       </c>
       <c r="AE4" t="n">
-        <v>1906430.927802519</v>
+        <v>2018983.570108668</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.230310627294083e-06</v>
+        <v>2.345161932412689e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.77669270833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1724483.835745658</v>
+        <v>1826294.611838734</v>
       </c>
     </row>
     <row r="5">
@@ -9817,28 +9817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1283.62175381824</v>
+        <v>1354.118775268523</v>
       </c>
       <c r="AB5" t="n">
-        <v>1756.307912969193</v>
+        <v>1852.765047826556</v>
       </c>
       <c r="AC5" t="n">
-        <v>1588.68835074905</v>
+        <v>1675.939752034066</v>
       </c>
       <c r="AD5" t="n">
-        <v>1283621.75381824</v>
+        <v>1354118.775268523</v>
       </c>
       <c r="AE5" t="n">
-        <v>1756307.912969193</v>
+        <v>1852765.047826556</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.297824140285021e-06</v>
+        <v>2.473853107695815e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.11263020833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1588688.35074905</v>
+        <v>1675939.752034066</v>
       </c>
     </row>
     <row r="6">
@@ -9923,28 +9923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1207.180187719046</v>
+        <v>1277.76246051535</v>
       </c>
       <c r="AB6" t="n">
-        <v>1651.717189868389</v>
+        <v>1748.290969378402</v>
       </c>
       <c r="AC6" t="n">
-        <v>1494.079619466985</v>
+        <v>1581.436533002713</v>
       </c>
       <c r="AD6" t="n">
-        <v>1207180.187719046</v>
+        <v>1277762.46051535</v>
       </c>
       <c r="AE6" t="n">
-        <v>1651717.189868389</v>
+        <v>1748290.969378402</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.340128744991789e-06</v>
+        <v>2.554492213238032e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.73014322916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1494079.619466985</v>
+        <v>1581436.533002713</v>
       </c>
     </row>
     <row r="7">
@@ -10029,28 +10029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1164.716500011119</v>
+        <v>1235.12818060683</v>
       </c>
       <c r="AB7" t="n">
-        <v>1593.616498980717</v>
+        <v>1689.956866715882</v>
       </c>
       <c r="AC7" t="n">
-        <v>1441.5239769728</v>
+        <v>1528.669755225877</v>
       </c>
       <c r="AD7" t="n">
-        <v>1164716.500011119</v>
+        <v>1235128.18060683</v>
       </c>
       <c r="AE7" t="n">
-        <v>1593616.498980717</v>
+        <v>1689956.866715882</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.367848885518826e-06</v>
+        <v>2.607331079198343e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.49251302083333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1441523.9769728</v>
+        <v>1528669.755225877</v>
       </c>
     </row>
     <row r="8">
@@ -10135,28 +10135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1133.814536072108</v>
+        <v>1204.226216667819</v>
       </c>
       <c r="AB8" t="n">
-        <v>1551.33506862093</v>
+        <v>1647.675436356095</v>
       </c>
       <c r="AC8" t="n">
-        <v>1403.277826984192</v>
+        <v>1490.423605237268</v>
       </c>
       <c r="AD8" t="n">
-        <v>1133814.536072108</v>
+        <v>1204226.216667819</v>
       </c>
       <c r="AE8" t="n">
-        <v>1551335.06862093</v>
+        <v>1647675.436356095</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.387938743461766e-06</v>
+        <v>2.645625448953551e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.32649739583333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1403277.826984192</v>
+        <v>1490423.605237268</v>
       </c>
     </row>
     <row r="9">
@@ -10241,28 +10241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1107.960096717025</v>
+        <v>1166.778746889162</v>
       </c>
       <c r="AB9" t="n">
-        <v>1515.959884077942</v>
+        <v>1596.438156139167</v>
       </c>
       <c r="AC9" t="n">
-        <v>1371.278800404603</v>
+        <v>1444.076339132269</v>
       </c>
       <c r="AD9" t="n">
-        <v>1107960.096717025</v>
+        <v>1166778.746889162</v>
       </c>
       <c r="AE9" t="n">
-        <v>1515959.884077942</v>
+        <v>1596438.156139167</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.403295894485456e-06</v>
+        <v>2.674898548910657e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.20279947916667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1371278.800404603</v>
+        <v>1444076.339132269</v>
       </c>
     </row>
     <row r="10">
@@ -10347,28 +10347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1085.492574334095</v>
+        <v>1144.311224506232</v>
       </c>
       <c r="AB10" t="n">
-        <v>1485.218828756484</v>
+        <v>1565.697100817709</v>
       </c>
       <c r="AC10" t="n">
-        <v>1343.471628257683</v>
+        <v>1416.269166985349</v>
       </c>
       <c r="AD10" t="n">
-        <v>1085492.574334095</v>
+        <v>1144311.224506232</v>
       </c>
       <c r="AE10" t="n">
-        <v>1485218.828756484</v>
+        <v>1565697.100817709</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.416817914254743e-06</v>
+        <v>2.700673605476663e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.09537760416667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1343471.628257683</v>
+        <v>1416269.166985349</v>
       </c>
     </row>
     <row r="11">
@@ -10453,28 +10453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1066.276797859092</v>
+        <v>1125.095448031229</v>
       </c>
       <c r="AB11" t="n">
-        <v>1458.926955643157</v>
+        <v>1539.405227704382</v>
       </c>
       <c r="AC11" t="n">
-        <v>1319.689014613416</v>
+        <v>1392.486553341082</v>
       </c>
       <c r="AD11" t="n">
-        <v>1066276.797859092</v>
+        <v>1125095.448031229</v>
       </c>
       <c r="AE11" t="n">
-        <v>1458926.955643157</v>
+        <v>1539405.227704383</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.427249186648192e-06</v>
+        <v>2.720557220541867e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.01399739583333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1319689.014613416</v>
+        <v>1392486.553341082</v>
       </c>
     </row>
     <row r="12">
@@ -10559,28 +10559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1038.751287880315</v>
+        <v>1109.248219822047</v>
       </c>
       <c r="AB12" t="n">
-        <v>1421.265338550399</v>
+        <v>1517.722350938213</v>
       </c>
       <c r="AC12" t="n">
-        <v>1285.621769397579</v>
+        <v>1372.873059901368</v>
       </c>
       <c r="AD12" t="n">
-        <v>1038751.287880315</v>
+        <v>1109248.219822047</v>
       </c>
       <c r="AE12" t="n">
-        <v>1421265.338550399</v>
+        <v>1517722.350938213</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.434203368243825e-06</v>
+        <v>2.73381296391867e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.96028645833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1285621.769397579</v>
+        <v>1372873.059901368</v>
       </c>
     </row>
     <row r="13">
@@ -10665,28 +10665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1021.267354746794</v>
+        <v>1091.764286688525</v>
       </c>
       <c r="AB13" t="n">
-        <v>1397.343049900423</v>
+        <v>1493.800062288237</v>
       </c>
       <c r="AC13" t="n">
-        <v>1263.982590401214</v>
+        <v>1351.233880905002</v>
       </c>
       <c r="AD13" t="n">
-        <v>1021267.354746794</v>
+        <v>1091764.286688525</v>
       </c>
       <c r="AE13" t="n">
-        <v>1397343.049900423</v>
+        <v>1493800.062288237</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.442316580105397e-06</v>
+        <v>2.749277997858273e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.90006510416667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1263982.590401214</v>
+        <v>1351233.880905002</v>
       </c>
     </row>
     <row r="14">
@@ -10771,28 +10771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1008.778605534965</v>
+        <v>1079.275537476697</v>
       </c>
       <c r="AB14" t="n">
-        <v>1380.255392264069</v>
+        <v>1476.712404651883</v>
       </c>
       <c r="AC14" t="n">
-        <v>1248.525754826995</v>
+        <v>1335.777045330784</v>
       </c>
       <c r="AD14" t="n">
-        <v>1008778.605534965</v>
+        <v>1079275.537476697</v>
       </c>
       <c r="AE14" t="n">
-        <v>1380255.392264069</v>
+        <v>1476712.404651883</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.446662943602668e-06</v>
+        <v>2.757562837468775e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.86751302083333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1248525.754826995</v>
+        <v>1335777.045330784</v>
       </c>
     </row>
     <row r="15">
@@ -10877,28 +10877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>994.2595087821622</v>
+        <v>1064.756440723894</v>
       </c>
       <c r="AB15" t="n">
-        <v>1360.389723549542</v>
+        <v>1456.846735937356</v>
       </c>
       <c r="AC15" t="n">
-        <v>1230.556037652942</v>
+        <v>1317.80732815673</v>
       </c>
       <c r="AD15" t="n">
-        <v>994259.5087821622</v>
+        <v>1064756.440723894</v>
       </c>
       <c r="AE15" t="n">
-        <v>1360389.723549542</v>
+        <v>1456846.735937356</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.452747852498847e-06</v>
+        <v>2.769161612923477e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH15" t="n">
-        <v>1230556.037652942</v>
+        <v>1317807.32815673</v>
       </c>
     </row>
     <row r="16">
@@ -10983,28 +10983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>980.381931691731</v>
+        <v>1050.878863633463</v>
       </c>
       <c r="AB16" t="n">
-        <v>1341.401810338923</v>
+        <v>1437.858822726737</v>
       </c>
       <c r="AC16" t="n">
-        <v>1213.38030422944</v>
+        <v>1300.631594733229</v>
       </c>
       <c r="AD16" t="n">
-        <v>980381.931691731</v>
+        <v>1050878.863633463</v>
       </c>
       <c r="AE16" t="n">
-        <v>1341401.810338923</v>
+        <v>1437858.822726737</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.456901044285128e-06</v>
+        <v>2.777078237440179e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.791015625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1213380.30422944</v>
+        <v>1300631.594733229</v>
       </c>
     </row>
     <row r="17">
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>968.8614082934544</v>
+        <v>1039.358340235186</v>
       </c>
       <c r="AB17" t="n">
-        <v>1325.638921975778</v>
+        <v>1422.095934363593</v>
       </c>
       <c r="AC17" t="n">
-        <v>1199.121803808322</v>
+        <v>1286.37309431211</v>
       </c>
       <c r="AD17" t="n">
-        <v>968861.4082934543</v>
+        <v>1039358.340235186</v>
       </c>
       <c r="AE17" t="n">
-        <v>1325638.921975778</v>
+        <v>1422095.934363593</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.459605448238985e-06</v>
+        <v>2.78223324875338e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.76985677083333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1199121.803808322</v>
+        <v>1286373.09431211</v>
       </c>
     </row>
     <row r="18">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>960.052357264397</v>
+        <v>1030.549289206129</v>
       </c>
       <c r="AB18" t="n">
-        <v>1313.585989729919</v>
+        <v>1410.043002117733</v>
       </c>
       <c r="AC18" t="n">
-        <v>1188.21918649961</v>
+        <v>1275.470477003399</v>
       </c>
       <c r="AD18" t="n">
-        <v>960052.357264397</v>
+        <v>1030549.289206129</v>
       </c>
       <c r="AE18" t="n">
-        <v>1313585.989729919</v>
+        <v>1410043.002117733</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.462309852192842e-06</v>
+        <v>2.787388260066581e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.75032552083333</v>
       </c>
       <c r="AH18" t="n">
-        <v>1188219.186499611</v>
+        <v>1275470.477003399</v>
       </c>
     </row>
     <row r="19">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>960.7361329442243</v>
+        <v>1031.233064885956</v>
       </c>
       <c r="AB19" t="n">
-        <v>1314.521561781112</v>
+        <v>1410.978574168927</v>
       </c>
       <c r="AC19" t="n">
-        <v>1189.065468867322</v>
+        <v>1276.31675937111</v>
       </c>
       <c r="AD19" t="n">
-        <v>960736.1329442243</v>
+        <v>1031233.064885956</v>
       </c>
       <c r="AE19" t="n">
-        <v>1314521.561781113</v>
+        <v>1410978.574168927</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.787204152519681e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.75032552083333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1189065.468867322</v>
+        <v>1276316.75937111</v>
       </c>
     </row>
     <row r="20">
@@ -11407,28 +11407,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>964.9808707062421</v>
+        <v>1035.477802647974</v>
       </c>
       <c r="AB20" t="n">
-        <v>1320.329399251719</v>
+        <v>1416.786411639533</v>
       </c>
       <c r="AC20" t="n">
-        <v>1194.319014481085</v>
+        <v>1281.570304984873</v>
       </c>
       <c r="AD20" t="n">
-        <v>964980.870706242</v>
+        <v>1035477.802647974</v>
       </c>
       <c r="AE20" t="n">
-        <v>1320329.399251719</v>
+        <v>1416786.411639533</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.462213266337347e-06</v>
+        <v>2.787204152519681e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.751953125</v>
       </c>
       <c r="AH20" t="n">
-        <v>1194319.014481085</v>
+        <v>1281570.304984873</v>
       </c>
     </row>
   </sheetData>
@@ -11704,28 +11704,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1209.192605305715</v>
+        <v>1282.35145139803</v>
       </c>
       <c r="AB2" t="n">
-        <v>1654.470668392067</v>
+        <v>1754.569829156074</v>
       </c>
       <c r="AC2" t="n">
-        <v>1496.570309864894</v>
+        <v>1587.11614721564</v>
       </c>
       <c r="AD2" t="n">
-        <v>1209192.605305715</v>
+        <v>1282351.45139803</v>
       </c>
       <c r="AE2" t="n">
-        <v>1654470.668392067</v>
+        <v>1754569.829156074</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.214955965848584e-06</v>
+        <v>2.587538249716213e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.4384765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1496570.309864894</v>
+        <v>1587116.14721564</v>
       </c>
     </row>
     <row r="3">
@@ -11810,28 +11810,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>882.7400153481034</v>
+        <v>945.4354189492282</v>
       </c>
       <c r="AB3" t="n">
-        <v>1207.803832740241</v>
+        <v>1293.586449873298</v>
       </c>
       <c r="AC3" t="n">
-        <v>1092.532730106838</v>
+        <v>1170.128374657375</v>
       </c>
       <c r="AD3" t="n">
-        <v>882740.0153481034</v>
+        <v>945435.4189492281</v>
       </c>
       <c r="AE3" t="n">
-        <v>1207803.832740241</v>
+        <v>1293586.449873298</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.456912511872718e-06</v>
+        <v>3.10284237200956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.041015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1092532.730106838</v>
+        <v>1170128.374657375</v>
       </c>
     </row>
     <row r="4">
@@ -11916,28 +11916,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>785.3045685263929</v>
+        <v>847.9146312729461</v>
       </c>
       <c r="AB4" t="n">
-        <v>1074.48835585024</v>
+        <v>1160.154205861098</v>
       </c>
       <c r="AC4" t="n">
-        <v>971.9406952217713</v>
+        <v>1049.430716740369</v>
       </c>
       <c r="AD4" t="n">
-        <v>785304.5685263929</v>
+        <v>847914.631272946</v>
       </c>
       <c r="AE4" t="n">
-        <v>1074488.35585024</v>
+        <v>1160154.205861099</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.540007610752277e-06</v>
+        <v>3.279813186391819e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.38997395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>971940.6952217713</v>
+        <v>1049430.716740369</v>
       </c>
     </row>
     <row r="5">
@@ -12022,28 +12022,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>734.9274646205212</v>
+        <v>787.2447665850266</v>
       </c>
       <c r="AB5" t="n">
-        <v>1005.560179805257</v>
+        <v>1077.14302042956</v>
       </c>
       <c r="AC5" t="n">
-        <v>909.5909275572185</v>
+        <v>974.342002339486</v>
       </c>
       <c r="AD5" t="n">
-        <v>734927.4646205212</v>
+        <v>787244.7665850266</v>
       </c>
       <c r="AE5" t="n">
-        <v>1005560.179805257</v>
+        <v>1077143.02042956</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.582579029763204e-06</v>
+        <v>3.370479167819824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.083984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>909590.9275572185</v>
+        <v>974342.002339486</v>
       </c>
     </row>
     <row r="6">
@@ -12128,28 +12128,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>691.7353738772907</v>
+        <v>754.4306879698644</v>
       </c>
       <c r="AB6" t="n">
-        <v>946.4628557498087</v>
+        <v>1032.245350413317</v>
       </c>
       <c r="AC6" t="n">
-        <v>856.1337691660071</v>
+        <v>933.7293029353175</v>
       </c>
       <c r="AD6" t="n">
-        <v>691735.3738772908</v>
+        <v>754430.6879698643</v>
       </c>
       <c r="AE6" t="n">
-        <v>946462.8557498087</v>
+        <v>1032245.350413317</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.605643039050137e-06</v>
+        <v>3.419599471682085e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>856133.7691660072</v>
+        <v>933729.3029353175</v>
       </c>
     </row>
     <row r="7">
@@ -12234,28 +12234,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>694.8510947553096</v>
+        <v>757.5464088478833</v>
       </c>
       <c r="AB7" t="n">
-        <v>950.7259225110182</v>
+        <v>1036.508417174526</v>
       </c>
       <c r="AC7" t="n">
-        <v>859.9899748187787</v>
+        <v>937.5855085880889</v>
       </c>
       <c r="AD7" t="n">
-        <v>694851.0947553096</v>
+        <v>757546.4088478833</v>
       </c>
       <c r="AE7" t="n">
-        <v>950725.9225110182</v>
+        <v>1036508.417174526</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.606397469260458e-06</v>
+        <v>3.421206210593467e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.91959635416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>859989.9748187787</v>
+        <v>937585.5085880889</v>
       </c>
     </row>
   </sheetData>
@@ -12531,28 +12531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1710.384083506813</v>
+        <v>1798.073200530395</v>
       </c>
       <c r="AB2" t="n">
-        <v>2340.222959874311</v>
+        <v>2460.203078356788</v>
       </c>
       <c r="AC2" t="n">
-        <v>2116.875365107459</v>
+        <v>2225.404749475123</v>
       </c>
       <c r="AD2" t="n">
-        <v>1710384.083506813</v>
+        <v>1798073.200530395</v>
       </c>
       <c r="AE2" t="n">
-        <v>2340222.959874311</v>
+        <v>2460203.078356788</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.032912247633422e-06</v>
+        <v>2.097168973164184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.24674479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2116875.365107459</v>
+        <v>2225404.749475123</v>
       </c>
     </row>
     <row r="3">
@@ -12637,28 +12637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1133.261894719736</v>
+        <v>1209.979126188567</v>
       </c>
       <c r="AB3" t="n">
-        <v>1550.578920341798</v>
+        <v>1655.546820962837</v>
       </c>
       <c r="AC3" t="n">
-        <v>1402.593844435559</v>
+        <v>1497.5437559447</v>
       </c>
       <c r="AD3" t="n">
-        <v>1133261.894719736</v>
+        <v>1209979.126188567</v>
       </c>
       <c r="AE3" t="n">
-        <v>1550578.920341798</v>
+        <v>1655546.820962837</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.316246531571997e-06</v>
+        <v>2.67243552719245e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.7490234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1402593.844435559</v>
+        <v>1497543.7559447</v>
       </c>
     </row>
     <row r="4">
@@ -12743,28 +12743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>992.8693206275962</v>
+        <v>1058.700096904798</v>
       </c>
       <c r="AB4" t="n">
-        <v>1358.487606785692</v>
+        <v>1448.560179137037</v>
       </c>
       <c r="AC4" t="n">
-        <v>1228.835456243396</v>
+        <v>1310.311628707178</v>
       </c>
       <c r="AD4" t="n">
-        <v>992869.3206275961</v>
+        <v>1058700.096904798</v>
       </c>
       <c r="AE4" t="n">
-        <v>1358487.606785692</v>
+        <v>1448560.179137038</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4172900535006e-06</v>
+        <v>2.877588810652313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.8408203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1228835.456243396</v>
+        <v>1310311.628707178</v>
       </c>
     </row>
     <row r="5">
@@ -12849,28 +12849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>928.3548326842312</v>
+        <v>994.015016760841</v>
       </c>
       <c r="AB5" t="n">
-        <v>1270.216038203245</v>
+        <v>1360.055198779744</v>
       </c>
       <c r="AC5" t="n">
-        <v>1148.988402276533</v>
+        <v>1230.253439457665</v>
       </c>
       <c r="AD5" t="n">
-        <v>928354.8326842311</v>
+        <v>994015.016760841</v>
       </c>
       <c r="AE5" t="n">
-        <v>1270216.038203245</v>
+        <v>1360055.198779744</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.469873927157323e-06</v>
+        <v>2.984352254085506e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.41764322916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1148988.402276533</v>
+        <v>1230253.439457665</v>
       </c>
     </row>
     <row r="6">
@@ -12955,28 +12955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>887.5007435756802</v>
+        <v>942.3598133152329</v>
       </c>
       <c r="AB6" t="n">
-        <v>1214.317671129719</v>
+        <v>1289.378270558721</v>
       </c>
       <c r="AC6" t="n">
-        <v>1098.424896902653</v>
+        <v>1166.321818070365</v>
       </c>
       <c r="AD6" t="n">
-        <v>887500.7435756802</v>
+        <v>942359.813315233</v>
       </c>
       <c r="AE6" t="n">
-        <v>1214317.671129718</v>
+        <v>1289378.270558721</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.500290089370525e-06</v>
+        <v>3.046107579208628e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.1865234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1098424.896902653</v>
+        <v>1166321.818070365</v>
       </c>
     </row>
     <row r="7">
@@ -13061,28 +13061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>854.3664067353925</v>
+        <v>909.2254764749455</v>
       </c>
       <c r="AB7" t="n">
-        <v>1168.981809681063</v>
+        <v>1244.042409110066</v>
       </c>
       <c r="AC7" t="n">
-        <v>1057.415826441376</v>
+        <v>1125.312747609088</v>
       </c>
       <c r="AD7" t="n">
-        <v>854366.4067353925</v>
+        <v>909225.4764749454</v>
       </c>
       <c r="AE7" t="n">
-        <v>1168981.809681063</v>
+        <v>1244042.409110066</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.523591962794876e-06</v>
+        <v>3.093418438455494e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.01399739583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1057415.826441376</v>
+        <v>1125312.747609088</v>
       </c>
     </row>
     <row r="8">
@@ -13167,28 +13167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>817.7458905056172</v>
+        <v>883.4913259282476</v>
       </c>
       <c r="AB8" t="n">
-        <v>1118.876003792331</v>
+        <v>1208.831809021478</v>
       </c>
       <c r="AC8" t="n">
-        <v>1012.092048342724</v>
+        <v>1093.462597774567</v>
       </c>
       <c r="AD8" t="n">
-        <v>817745.8905056173</v>
+        <v>883491.3259282477</v>
       </c>
       <c r="AE8" t="n">
-        <v>1118876.003792331</v>
+        <v>1208831.809021478</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.538232962911062e-06</v>
+        <v>3.123144730548658e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.90983072916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1012092.048342724</v>
+        <v>1093462.597774568</v>
       </c>
     </row>
     <row r="9">
@@ -13273,28 +13273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>792.3602340999021</v>
+        <v>858.1056695225326</v>
       </c>
       <c r="AB9" t="n">
-        <v>1084.142228761912</v>
+        <v>1174.09803399106</v>
       </c>
       <c r="AC9" t="n">
-        <v>980.6732160520487</v>
+        <v>1062.043765483892</v>
       </c>
       <c r="AD9" t="n">
-        <v>792360.2340999021</v>
+        <v>858105.6695225326</v>
       </c>
       <c r="AE9" t="n">
-        <v>1084142.228761912</v>
+        <v>1174098.03399106</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.550811850334827e-06</v>
+        <v>3.148684220938559e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>980673.2160520487</v>
+        <v>1062043.765483893</v>
       </c>
     </row>
     <row r="10">
@@ -13379,28 +13379,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>789.5435780548877</v>
+        <v>855.2890134775182</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080.288355699028</v>
+        <v>1170.244160928176</v>
       </c>
       <c r="AC10" t="n">
-        <v>977.1871512253421</v>
+        <v>1058.557700657186</v>
       </c>
       <c r="AD10" t="n">
-        <v>789543.5780548877</v>
+        <v>855289.0134775182</v>
       </c>
       <c r="AE10" t="n">
-        <v>1080288.355699028</v>
+        <v>1170244.160928176</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.551842906681037e-06</v>
+        <v>3.150777621790191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.81380208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>977187.1512253421</v>
+        <v>1058557.700657186</v>
       </c>
     </row>
   </sheetData>
@@ -13676,28 +13676,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>904.6030393312192</v>
+        <v>974.7578652095814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1237.717786682486</v>
+        <v>1333.706714461743</v>
       </c>
       <c r="AC2" t="n">
-        <v>1119.591738269333</v>
+        <v>1206.419617502644</v>
       </c>
       <c r="AD2" t="n">
-        <v>904603.0393312192</v>
+        <v>974757.8652095813</v>
       </c>
       <c r="AE2" t="n">
-        <v>1237717.786682486</v>
+        <v>1333706.714461743</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.371193692826337e-06</v>
+        <v>3.053380526831036e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.2861328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1119591.738269333</v>
+        <v>1206419.617502644</v>
       </c>
     </row>
     <row r="3">
@@ -13782,28 +13782,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>691.6359090344017</v>
+        <v>751.9148388163627</v>
       </c>
       <c r="AB3" t="n">
-        <v>946.3267635636887</v>
+        <v>1028.803054610064</v>
       </c>
       <c r="AC3" t="n">
-        <v>856.0106654271241</v>
+        <v>930.6155350122349</v>
       </c>
       <c r="AD3" t="n">
-        <v>691635.9090344018</v>
+        <v>751914.8388163627</v>
       </c>
       <c r="AE3" t="n">
-        <v>946326.7635636887</v>
+        <v>1028803.054610064</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.575249701154697e-06</v>
+        <v>3.507773400334137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.56575520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>856010.6654271241</v>
+        <v>930615.5350122349</v>
       </c>
     </row>
     <row r="4">
@@ -13888,28 +13888,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>625.1012488191652</v>
+        <v>675.3337798126836</v>
       </c>
       <c r="AB4" t="n">
-        <v>855.2911061551569</v>
+        <v>924.0214711633515</v>
       </c>
       <c r="AC4" t="n">
-        <v>773.6633233923147</v>
+        <v>835.8341588278004</v>
       </c>
       <c r="AD4" t="n">
-        <v>625101.2488191652</v>
+        <v>675333.7798126836</v>
       </c>
       <c r="AE4" t="n">
-        <v>855291.1061551569</v>
+        <v>924021.4711633516</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.64319374781148e-06</v>
+        <v>3.65907152113303e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>773663.3233923147</v>
+        <v>835834.1588278004</v>
       </c>
     </row>
     <row r="5">
@@ -13994,28 +13994,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>628.0353074964022</v>
+        <v>678.2678384899206</v>
       </c>
       <c r="AB5" t="n">
-        <v>859.3056146788859</v>
+        <v>928.0359796870806</v>
       </c>
       <c r="AC5" t="n">
-        <v>777.2946928569371</v>
+        <v>839.4655282924227</v>
       </c>
       <c r="AD5" t="n">
-        <v>628035.3074964022</v>
+        <v>678267.8384899206</v>
       </c>
       <c r="AE5" t="n">
-        <v>859305.6146788859</v>
+        <v>928035.9796870806</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.64408922124353e-06</v>
+        <v>3.661065565558716e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>777294.6928569371</v>
+        <v>839465.5282924228</v>
       </c>
     </row>
   </sheetData>
@@ -14291,28 +14291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3339.037332551511</v>
+        <v>3469.686866155022</v>
       </c>
       <c r="AB2" t="n">
-        <v>4568.618186327879</v>
+        <v>4747.378642054843</v>
       </c>
       <c r="AC2" t="n">
-        <v>4132.59567872047</v>
+        <v>4294.295487444721</v>
       </c>
       <c r="AD2" t="n">
-        <v>3339037.332551511</v>
+        <v>3469686.866155022</v>
       </c>
       <c r="AE2" t="n">
-        <v>4568618.186327879</v>
+        <v>4747378.642054843</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.242998591603007e-07</v>
+        <v>1.369479858888928e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4132595.678720471</v>
+        <v>4294295.487444721</v>
       </c>
     </row>
     <row r="3">
@@ -14397,28 +14397,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1760.997306894634</v>
+        <v>1855.929808660797</v>
       </c>
       <c r="AB3" t="n">
-        <v>2409.474205011353</v>
+        <v>2539.365042054212</v>
       </c>
       <c r="AC3" t="n">
-        <v>2179.517368603355</v>
+        <v>2297.011606461778</v>
       </c>
       <c r="AD3" t="n">
-        <v>1760997.306894633</v>
+        <v>1855929.808660797</v>
       </c>
       <c r="AE3" t="n">
-        <v>2409474.205011353</v>
+        <v>2539365.042054212</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.072139913103545e-06</v>
+        <v>2.027163195376619e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.53125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2179517.368603355</v>
+        <v>2297011.606461778</v>
       </c>
     </row>
     <row r="4">
@@ -14503,28 +14503,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1457.608456653713</v>
+        <v>1540.663728092284</v>
       </c>
       <c r="AB4" t="n">
-        <v>1994.364195540288</v>
+        <v>2108.004082062515</v>
       </c>
       <c r="AC4" t="n">
-        <v>1804.024875825651</v>
+        <v>1906.819131072779</v>
       </c>
       <c r="AD4" t="n">
-        <v>1457608.456653713</v>
+        <v>1540663.728092284</v>
       </c>
       <c r="AE4" t="n">
-        <v>1994364.195540288</v>
+        <v>2108004.082062515</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.204709663987253e-06</v>
+        <v>2.277821263905913e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.93131510416667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1804024.875825651</v>
+        <v>1906819.131072779</v>
       </c>
     </row>
     <row r="5">
@@ -14609,28 +14609,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1339.96197284415</v>
+        <v>1411.14010346368</v>
       </c>
       <c r="AB5" t="n">
-        <v>1833.395086195484</v>
+        <v>1930.784144666627</v>
       </c>
       <c r="AC5" t="n">
-        <v>1658.418432355151</v>
+        <v>1746.51281577221</v>
       </c>
       <c r="AD5" t="n">
-        <v>1339961.97284415</v>
+        <v>1411140.10346368</v>
       </c>
       <c r="AE5" t="n">
-        <v>1833395.086195484</v>
+        <v>1930784.144666627</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.273531072568759e-06</v>
+        <v>2.407946282875272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.23307291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1658418.432355151</v>
+        <v>1746512.81577221</v>
       </c>
     </row>
     <row r="6">
@@ -14715,28 +14715,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1258.818657802709</v>
+        <v>1330.08203976826</v>
       </c>
       <c r="AB6" t="n">
-        <v>1722.371222765374</v>
+        <v>1819.876925889167</v>
       </c>
       <c r="AC6" t="n">
-        <v>1557.99053062784</v>
+        <v>1646.190426295612</v>
       </c>
       <c r="AD6" t="n">
-        <v>1258818.657802709</v>
+        <v>1330082.03976826</v>
       </c>
       <c r="AE6" t="n">
-        <v>1722371.222765374</v>
+        <v>1819876.925889167</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316987149753743e-06</v>
+        <v>2.490111454797509e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.82942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1557990.53062784</v>
+        <v>1646190.426295612</v>
       </c>
     </row>
     <row r="7">
@@ -14821,28 +14821,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1213.389317125561</v>
+        <v>1284.652699091112</v>
       </c>
       <c r="AB7" t="n">
-        <v>1660.212794649839</v>
+        <v>1757.718497773631</v>
       </c>
       <c r="AC7" t="n">
-        <v>1501.76441565175</v>
+        <v>1589.964311319522</v>
       </c>
       <c r="AD7" t="n">
-        <v>1213389.317125561</v>
+        <v>1284652.699091112</v>
       </c>
       <c r="AE7" t="n">
-        <v>1660212.794649839</v>
+        <v>1757718.497773631</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.34627692864935e-06</v>
+        <v>2.545491504595318e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.572265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1501764.41565175</v>
+        <v>1589964.311319522</v>
       </c>
     </row>
     <row r="8">
@@ -14927,28 +14927,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179.530989525061</v>
+        <v>1250.62377929002</v>
       </c>
       <c r="AB8" t="n">
-        <v>1613.886337102843</v>
+        <v>1711.158628451789</v>
       </c>
       <c r="AC8" t="n">
-        <v>1459.859290193447</v>
+        <v>1547.848050578568</v>
       </c>
       <c r="AD8" t="n">
-        <v>1179530.989525061</v>
+        <v>1250623.77929002</v>
       </c>
       <c r="AE8" t="n">
-        <v>1613886.337102843</v>
+        <v>1711158.628451789</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.367909249010157e-06</v>
+        <v>2.586393110001542e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.38834635416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1459859.290193447</v>
+        <v>1547848.050578568</v>
       </c>
     </row>
     <row r="9">
@@ -15033,28 +15033,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1152.743460761314</v>
+        <v>1223.836250526273</v>
       </c>
       <c r="AB9" t="n">
-        <v>1577.234458465921</v>
+        <v>1674.506749814867</v>
       </c>
       <c r="AC9" t="n">
-        <v>1426.705415412398</v>
+        <v>1514.694175797519</v>
       </c>
       <c r="AD9" t="n">
-        <v>1152743.460761314</v>
+        <v>1223836.250526273</v>
       </c>
       <c r="AE9" t="n">
-        <v>1577234.458465921</v>
+        <v>1674506.749814867</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38408563016492e-06</v>
+        <v>2.616978823778763e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.25651041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1426705.415412399</v>
+        <v>1514694.175797519</v>
       </c>
     </row>
     <row r="10">
@@ -15139,28 +15139,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1131.326876729055</v>
+        <v>1190.713117875565</v>
       </c>
       <c r="AB10" t="n">
-        <v>1547.93134335998</v>
+        <v>1629.186218432688</v>
       </c>
       <c r="AC10" t="n">
-        <v>1400.198948484988</v>
+        <v>1473.698972322691</v>
       </c>
       <c r="AD10" t="n">
-        <v>1131326.876729055</v>
+        <v>1190713.117875565</v>
       </c>
       <c r="AE10" t="n">
-        <v>1547931.34335998</v>
+        <v>1629186.218432688</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.396529000283968e-06</v>
+        <v>2.640506295915086e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.15559895833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1400198.948484988</v>
+        <v>1473698.972322691</v>
       </c>
     </row>
     <row r="11">
@@ -15245,28 +15245,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1112.187044608096</v>
+        <v>1171.573285754607</v>
       </c>
       <c r="AB11" t="n">
-        <v>1521.743380662285</v>
+        <v>1602.998255734994</v>
       </c>
       <c r="AC11" t="n">
-        <v>1376.510328192125</v>
+        <v>1450.010352029828</v>
       </c>
       <c r="AD11" t="n">
-        <v>1112187.044608096</v>
+        <v>1171573.285754607</v>
       </c>
       <c r="AE11" t="n">
-        <v>1521743.380662285</v>
+        <v>1602998.255734994</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.407153724001002e-06</v>
+        <v>2.660595137508408e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.07096354166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1376510.328192125</v>
+        <v>1450010.352029828</v>
       </c>
     </row>
     <row r="12">
@@ -15351,28 +15351,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1094.370645203918</v>
+        <v>1153.756886350429</v>
       </c>
       <c r="AB12" t="n">
-        <v>1497.366196993421</v>
+        <v>1578.62107206613</v>
       </c>
       <c r="AC12" t="n">
-        <v>1354.459668719025</v>
+        <v>1427.959692556728</v>
       </c>
       <c r="AD12" t="n">
-        <v>1094370.645203918</v>
+        <v>1153756.886350429</v>
       </c>
       <c r="AE12" t="n">
-        <v>1497366.196993421</v>
+        <v>1578621.07206613</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.416151237779391e-06</v>
+        <v>2.677607309668519e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.0009765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1354459.668719025</v>
+        <v>1427959.692556727</v>
       </c>
     </row>
     <row r="13">
@@ -15457,28 +15457,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1068.254092027897</v>
+        <v>1139.432133138877</v>
       </c>
       <c r="AB13" t="n">
-        <v>1461.632376756979</v>
+        <v>1559.021312758574</v>
       </c>
       <c r="AC13" t="n">
-        <v>1322.136234133217</v>
+        <v>1410.23050676905</v>
       </c>
       <c r="AD13" t="n">
-        <v>1068254.092027897</v>
+        <v>1139432.133138877</v>
       </c>
       <c r="AE13" t="n">
-        <v>1461632.376756979</v>
+        <v>1559021.312758574</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.42189433168049e-06</v>
+        <v>2.688466142962207e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.95703125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1322136.234133217</v>
+        <v>1410230.50676905</v>
       </c>
     </row>
     <row r="14">
@@ -15563,28 +15563,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1053.861178159511</v>
+        <v>1125.039219270491</v>
       </c>
       <c r="AB14" t="n">
-        <v>1441.939357031708</v>
+        <v>1539.328293033303</v>
       </c>
       <c r="AC14" t="n">
-        <v>1304.322688571199</v>
+        <v>1392.416961207032</v>
       </c>
       <c r="AD14" t="n">
-        <v>1053861.178159511</v>
+        <v>1125039.219270491</v>
       </c>
       <c r="AE14" t="n">
-        <v>1441939.357031708</v>
+        <v>1539328.293033303</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.427733143813274e-06</v>
+        <v>2.69950595681079e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1304322.688571199</v>
+        <v>1392416.961207032</v>
       </c>
     </row>
     <row r="15">
@@ -15669,28 +15669,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1040.244501775371</v>
+        <v>1111.42254288635</v>
       </c>
       <c r="AB15" t="n">
-        <v>1423.308419677562</v>
+        <v>1520.697355679157</v>
       </c>
       <c r="AC15" t="n">
-        <v>1287.469861729448</v>
+        <v>1375.564134365281</v>
       </c>
       <c r="AD15" t="n">
-        <v>1040244.501775371</v>
+        <v>1111422.54288635</v>
       </c>
       <c r="AE15" t="n">
-        <v>1423308.419677562</v>
+        <v>1520697.355679156</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.434146265336168e-06</v>
+        <v>2.711631653988741e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.86263020833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1287469.861729448</v>
+        <v>1375564.134365281</v>
       </c>
     </row>
     <row r="16">
@@ -15775,28 +15775,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1027.011882462972</v>
+        <v>1098.189923573951</v>
       </c>
       <c r="AB16" t="n">
-        <v>1405.202966152375</v>
+        <v>1502.59190215397</v>
       </c>
       <c r="AC16" t="n">
-        <v>1271.092367277541</v>
+        <v>1359.186639913374</v>
       </c>
       <c r="AD16" t="n">
-        <v>1027011.882462972</v>
+        <v>1098189.923573951</v>
       </c>
       <c r="AE16" t="n">
-        <v>1405202.966152375</v>
+        <v>1502591.90215397</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.438740740457048e-06</v>
+        <v>2.720318720623691e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.82845052083333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1271092.367277541</v>
+        <v>1359186.639913374</v>
       </c>
     </row>
     <row r="17">
@@ -15881,28 +15881,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1016.778478794533</v>
+        <v>1087.956519905513</v>
       </c>
       <c r="AB17" t="n">
-        <v>1391.20117178731</v>
+        <v>1488.590107788905</v>
       </c>
       <c r="AC17" t="n">
-        <v>1258.426884515036</v>
+        <v>1346.52115715087</v>
       </c>
       <c r="AD17" t="n">
-        <v>1016778.478794533</v>
+        <v>1087956.519905513</v>
       </c>
       <c r="AE17" t="n">
-        <v>1391201.17178731</v>
+        <v>1488590.107788905</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.441325132712542e-06</v>
+        <v>2.725205195605851e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.80891927083333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1258426.884515036</v>
+        <v>1346521.15715087</v>
       </c>
     </row>
     <row r="18">
@@ -15987,28 +15987,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1002.986980656371</v>
+        <v>1074.16502176735</v>
       </c>
       <c r="AB18" t="n">
-        <v>1372.331035596719</v>
+        <v>1469.719971598314</v>
       </c>
       <c r="AC18" t="n">
-        <v>1241.357687638073</v>
+        <v>1329.451960273906</v>
       </c>
       <c r="AD18" t="n">
-        <v>1002986.980656371</v>
+        <v>1074165.02176735</v>
       </c>
       <c r="AE18" t="n">
-        <v>1372331.035596719</v>
+        <v>1469719.971598314</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.446206762528476e-06</v>
+        <v>2.734435203905485e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.77311197916667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1241357.687638073</v>
+        <v>1329451.960273906</v>
       </c>
     </row>
     <row r="19">
@@ -16093,28 +16093,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>991.6968168687373</v>
+        <v>1062.874857979717</v>
       </c>
       <c r="AB19" t="n">
-        <v>1356.883335415606</v>
+        <v>1454.272271417201</v>
       </c>
       <c r="AC19" t="n">
-        <v>1227.384294281262</v>
+        <v>1315.478566917095</v>
       </c>
       <c r="AD19" t="n">
-        <v>991696.8168687373</v>
+        <v>1062874.857979717</v>
       </c>
       <c r="AE19" t="n">
-        <v>1356883.335415606</v>
+        <v>1454272.271417201</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.449365464174081e-06</v>
+        <v>2.740407562217014e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.74869791666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1227384.294281262</v>
+        <v>1315478.566917095</v>
       </c>
     </row>
     <row r="20">
@@ -16199,28 +16199,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>987.6576505737014</v>
+        <v>1058.835691684681</v>
       </c>
       <c r="AB20" t="n">
-        <v>1351.356769895298</v>
+        <v>1448.745705896893</v>
       </c>
       <c r="AC20" t="n">
-        <v>1222.385176417628</v>
+        <v>1310.479449053461</v>
       </c>
       <c r="AD20" t="n">
-        <v>987657.6505737014</v>
+        <v>1058835.691684681</v>
       </c>
       <c r="AE20" t="n">
-        <v>1351356.769895298</v>
+        <v>1448745.705896893</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.450609801185986e-06</v>
+        <v>2.742760309430647e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.73893229166667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1222385.176417628</v>
+        <v>1310479.449053461</v>
       </c>
     </row>
     <row r="21">
@@ -16305,28 +16305,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>990.4607930008674</v>
+        <v>1061.638834111847</v>
       </c>
       <c r="AB21" t="n">
-        <v>1355.192153030062</v>
+        <v>1452.581089031657</v>
       </c>
       <c r="AC21" t="n">
-        <v>1225.854515969005</v>
+        <v>1313.948788604838</v>
       </c>
       <c r="AD21" t="n">
-        <v>990460.7930008674</v>
+        <v>1061638.834111847</v>
       </c>
       <c r="AE21" t="n">
-        <v>1355192.153030062</v>
+        <v>1452581.089031657</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.450705519417671e-06</v>
+        <v>2.742941289985541e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.73893229166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1225854.515969005</v>
+        <v>1313948.788604838</v>
       </c>
     </row>
   </sheetData>
@@ -16602,28 +16602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>746.7082887148759</v>
+        <v>815.2200707538958</v>
       </c>
       <c r="AB2" t="n">
-        <v>1021.679223064431</v>
+        <v>1115.420065776722</v>
       </c>
       <c r="AC2" t="n">
-        <v>924.1715919509568</v>
+        <v>1008.965940200886</v>
       </c>
       <c r="AD2" t="n">
-        <v>746708.2887148759</v>
+        <v>815220.0707538958</v>
       </c>
       <c r="AE2" t="n">
-        <v>1021679.223064431</v>
+        <v>1115420.065776722</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.467861670571113e-06</v>
+        <v>3.365170856885628e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.70182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>924171.5919509567</v>
+        <v>1008965.940200886</v>
       </c>
     </row>
     <row r="3">
@@ -16708,28 +16708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>586.3795897020001</v>
+        <v>645.0065314102006</v>
       </c>
       <c r="AB3" t="n">
-        <v>802.3104238720158</v>
+        <v>882.5263919553018</v>
       </c>
       <c r="AC3" t="n">
-        <v>725.739043067422</v>
+        <v>798.2993117406578</v>
       </c>
       <c r="AD3" t="n">
-        <v>586379.5897020001</v>
+        <v>645006.5314102006</v>
       </c>
       <c r="AE3" t="n">
-        <v>802310.4238720158</v>
+        <v>882526.3919553019</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.650914811633438e-06</v>
+        <v>3.78483240123581e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.2939453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>725739.043067422</v>
+        <v>798299.3117406578</v>
       </c>
     </row>
     <row r="4">
@@ -16814,28 +16814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>582.1350756144838</v>
+        <v>640.7620173226842</v>
       </c>
       <c r="AB4" t="n">
-        <v>796.5028924427301</v>
+        <v>876.7188605260162</v>
       </c>
       <c r="AC4" t="n">
-        <v>720.4857742868257</v>
+        <v>793.0460429600614</v>
       </c>
       <c r="AD4" t="n">
-        <v>582135.0756144838</v>
+        <v>640762.0173226842</v>
       </c>
       <c r="AE4" t="n">
-        <v>796502.89244273</v>
+        <v>876718.8605260162</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.659620718217128e-06</v>
+        <v>3.804791273182377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.23372395833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>720485.7742868258</v>
+        <v>793046.0429600615</v>
       </c>
     </row>
   </sheetData>
@@ -17111,28 +17111,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2305.216309780528</v>
+        <v>2407.68867443442</v>
       </c>
       <c r="AB2" t="n">
-        <v>3154.098654007933</v>
+        <v>3294.305864089066</v>
       </c>
       <c r="AC2" t="n">
-        <v>2853.075905274561</v>
+        <v>2979.9019360076</v>
       </c>
       <c r="AD2" t="n">
-        <v>2305216.309780528</v>
+        <v>2407688.67443442</v>
       </c>
       <c r="AE2" t="n">
-        <v>3154098.654007933</v>
+        <v>3294305.864089066</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.861664746894279e-07</v>
+        <v>1.736874043628925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.27799479166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2853075.905274561</v>
+        <v>2979901.9360076</v>
       </c>
     </row>
     <row r="3">
@@ -17217,28 +17217,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1392.596887875523</v>
+        <v>1472.19333034153</v>
       </c>
       <c r="AB3" t="n">
-        <v>1905.412499029975</v>
+        <v>2014.319863159174</v>
       </c>
       <c r="AC3" t="n">
-        <v>1723.562604385792</v>
+        <v>1822.076002534946</v>
       </c>
       <c r="AD3" t="n">
-        <v>1392596.887875523</v>
+        <v>1472193.33034153</v>
       </c>
       <c r="AE3" t="n">
-        <v>1905412.499029975</v>
+        <v>2014319.863159174</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.202220907436606e-06</v>
+        <v>2.356336363961936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.47330729166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1723562.604385792</v>
+        <v>1822076.002534946</v>
       </c>
     </row>
     <row r="4">
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1197.998586882688</v>
+        <v>1266.285079536609</v>
       </c>
       <c r="AB4" t="n">
-        <v>1639.154518540442</v>
+        <v>1732.587110376976</v>
       </c>
       <c r="AC4" t="n">
-        <v>1482.715911858758</v>
+        <v>1567.231428263878</v>
       </c>
       <c r="AD4" t="n">
-        <v>1197998.586882688</v>
+        <v>1266285.079536609</v>
       </c>
       <c r="AE4" t="n">
-        <v>1639154.518540442</v>
+        <v>1732587.110376976</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.317457378822385e-06</v>
+        <v>2.582198255317613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.294921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1482715.911858758</v>
+        <v>1567231.428263878</v>
       </c>
     </row>
     <row r="5">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1103.969243501544</v>
+        <v>1172.340987501487</v>
       </c>
       <c r="AB5" t="n">
-        <v>1510.499422644504</v>
+        <v>1604.048659133686</v>
       </c>
       <c r="AC5" t="n">
-        <v>1366.339477746566</v>
+        <v>1450.960506402399</v>
       </c>
       <c r="AD5" t="n">
-        <v>1103969.243501544</v>
+        <v>1172340.987501487</v>
       </c>
       <c r="AE5" t="n">
-        <v>1510499.422644503</v>
+        <v>1604048.659133686</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.376269774840515e-06</v>
+        <v>2.697469738729706e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.76920572916667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1366339.477746566</v>
+        <v>1450960.506402399</v>
       </c>
     </row>
     <row r="6">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1052.227545201006</v>
+        <v>1120.428697000355</v>
       </c>
       <c r="AB6" t="n">
-        <v>1439.704148347081</v>
+        <v>1533.019973061416</v>
       </c>
       <c r="AC6" t="n">
-        <v>1302.300805066297</v>
+        <v>1386.710698439479</v>
       </c>
       <c r="AD6" t="n">
-        <v>1052227.545201006</v>
+        <v>1120428.697000355</v>
       </c>
       <c r="AE6" t="n">
-        <v>1439704.148347081</v>
+        <v>1533019.973061416</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.413786311725177e-06</v>
+        <v>2.771001632547573e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.45670572916667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1302300.805066298</v>
+        <v>1386710.698439479</v>
       </c>
     </row>
     <row r="7">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1016.654798413188</v>
+        <v>1084.855950212537</v>
       </c>
       <c r="AB7" t="n">
-        <v>1391.03194683316</v>
+        <v>1484.347771547495</v>
       </c>
       <c r="AC7" t="n">
-        <v>1258.273810153002</v>
+        <v>1342.683703526184</v>
       </c>
       <c r="AD7" t="n">
-        <v>1016654.798413188</v>
+        <v>1084855.950212538</v>
       </c>
       <c r="AE7" t="n">
-        <v>1391031.94683316</v>
+        <v>1484347.771547495</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.438465625113496e-06</v>
+        <v>2.819372745722191e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.259765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1258273.810153002</v>
+        <v>1342683.703526183</v>
       </c>
     </row>
     <row r="8">
@@ -17747,28 +17747,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>987.5624549105229</v>
+        <v>1044.538997752359</v>
       </c>
       <c r="AB8" t="n">
-        <v>1351.2265189892</v>
+        <v>1429.184338533068</v>
       </c>
       <c r="AC8" t="n">
-        <v>1222.267356475201</v>
+        <v>1292.784991136288</v>
       </c>
       <c r="AD8" t="n">
-        <v>987562.4549105229</v>
+        <v>1044538.997752359</v>
       </c>
       <c r="AE8" t="n">
-        <v>1351226.5189892</v>
+        <v>1429184.338533068</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.456875596794298e-06</v>
+        <v>2.855456035791966e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.1181640625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1222267.356475201</v>
+        <v>1292784.991136289</v>
       </c>
     </row>
     <row r="9">
@@ -17853,28 +17853,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>964.4907653478764</v>
+        <v>1021.467308189712</v>
       </c>
       <c r="AB9" t="n">
-        <v>1319.65881547848</v>
+        <v>1397.616635022348</v>
       </c>
       <c r="AC9" t="n">
-        <v>1193.712430281994</v>
+        <v>1264.230064943081</v>
       </c>
       <c r="AD9" t="n">
-        <v>964490.7653478764</v>
+        <v>1021467.308189712</v>
       </c>
       <c r="AE9" t="n">
-        <v>1319658.81547848</v>
+        <v>1397616.635022348</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.470608440534572e-06</v>
+        <v>2.882372219735907e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.01399739583333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1193712.430281994</v>
+        <v>1264230.064943081</v>
       </c>
     </row>
     <row r="10">
@@ -17959,28 +17959,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>931.5852719409539</v>
+        <v>999.8716750863241</v>
       </c>
       <c r="AB10" t="n">
-        <v>1274.636067711215</v>
+        <v>1368.0685370782</v>
       </c>
       <c r="AC10" t="n">
-        <v>1152.986590371813</v>
+        <v>1237.501995995707</v>
       </c>
       <c r="AD10" t="n">
-        <v>931585.2719409539</v>
+        <v>999871.6750863241</v>
       </c>
       <c r="AE10" t="n">
-        <v>1274636.067711215</v>
+        <v>1368068.5370782</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.481952963624364e-06</v>
+        <v>2.904607328211336e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.92936197916667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1152986.590371813</v>
+        <v>1237501.995995707</v>
       </c>
     </row>
     <row r="11">
@@ -18065,28 +18065,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>912.1796811644793</v>
+        <v>980.4660843098495</v>
       </c>
       <c r="AB11" t="n">
-        <v>1248.084482296599</v>
+        <v>1341.516951663584</v>
       </c>
       <c r="AC11" t="n">
-        <v>1128.969051003784</v>
+        <v>1213.484456627678</v>
       </c>
       <c r="AD11" t="n">
-        <v>912179.6811644793</v>
+        <v>980466.0843098495</v>
       </c>
       <c r="AE11" t="n">
-        <v>1248084.482296599</v>
+        <v>1341516.951663584</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.4907101393428e-06</v>
+        <v>2.921771271595878e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1128969.051003783</v>
+        <v>1213484.456627678</v>
       </c>
     </row>
     <row r="12">
@@ -18171,28 +18171,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>894.5277756325738</v>
+        <v>962.8141787779442</v>
       </c>
       <c r="AB12" t="n">
-        <v>1223.932366400735</v>
+        <v>1317.36483576772</v>
       </c>
       <c r="AC12" t="n">
-        <v>1107.121979151313</v>
+        <v>1191.637384775208</v>
       </c>
       <c r="AD12" t="n">
-        <v>894527.7756325739</v>
+        <v>962814.1787779442</v>
       </c>
       <c r="AE12" t="n">
-        <v>1223932.366400735</v>
+        <v>1317364.83576772</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.497875101294247e-06</v>
+        <v>2.935814498001413e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.81380208333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1107121.979151313</v>
+        <v>1191637.384775208</v>
       </c>
     </row>
     <row r="13">
@@ -18277,28 +18277,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>878.917704834418</v>
+        <v>947.2041079797883</v>
       </c>
       <c r="AB13" t="n">
-        <v>1202.573978866978</v>
+        <v>1296.006448233964</v>
       </c>
       <c r="AC13" t="n">
-        <v>1087.802006147093</v>
+        <v>1172.317411770988</v>
       </c>
       <c r="AD13" t="n">
-        <v>878917.704834418</v>
+        <v>947204.1079797883</v>
       </c>
       <c r="AE13" t="n">
-        <v>1202573.978866979</v>
+        <v>1296006.448233963</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.503447849478706e-06</v>
+        <v>2.946737007427939e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.77311197916667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1087802.006147093</v>
+        <v>1172317.411770988</v>
       </c>
     </row>
     <row r="14">
@@ -18383,28 +18383,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>876.3151699137862</v>
+        <v>944.6015730591566</v>
       </c>
       <c r="AB14" t="n">
-        <v>1199.013075772833</v>
+        <v>1292.445545139818</v>
       </c>
       <c r="AC14" t="n">
-        <v>1084.580950646494</v>
+        <v>1169.096356270388</v>
       </c>
       <c r="AD14" t="n">
-        <v>876315.1699137862</v>
+        <v>944601.5730591567</v>
       </c>
       <c r="AE14" t="n">
-        <v>1199013.075772833</v>
+        <v>1292445.545139818</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.5042439563622e-06</v>
+        <v>2.948297365917443e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1084580.950646494</v>
+        <v>1169096.356270388</v>
       </c>
     </row>
     <row r="15">
@@ -18489,28 +18489,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>880.6130353874119</v>
+        <v>948.8994385327821</v>
       </c>
       <c r="AB15" t="n">
-        <v>1204.89360492229</v>
+        <v>1298.326074289275</v>
       </c>
       <c r="AC15" t="n">
-        <v>1089.900250347302</v>
+        <v>1174.415655971196</v>
       </c>
       <c r="AD15" t="n">
-        <v>880613.0353874118</v>
+        <v>948899.4385327821</v>
       </c>
       <c r="AE15" t="n">
-        <v>1204893.60492229</v>
+        <v>1298326.074289275</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.504144443001764e-06</v>
+        <v>2.948102321106255e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1089900.250347302</v>
+        <v>1174415.655971196</v>
       </c>
     </row>
   </sheetData>
@@ -18786,28 +18786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2773.520094510199</v>
+        <v>2901.454062727106</v>
       </c>
       <c r="AB2" t="n">
-        <v>3794.852552379971</v>
+        <v>3969.897451742695</v>
       </c>
       <c r="AC2" t="n">
-        <v>3432.677150889692</v>
+        <v>3591.01601073429</v>
       </c>
       <c r="AD2" t="n">
-        <v>2773520.094510199</v>
+        <v>2901454.062727106</v>
       </c>
       <c r="AE2" t="n">
-        <v>3794852.552379971</v>
+        <v>3969897.451742695</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.014768568212999e-07</v>
+        <v>1.541002022151144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.80143229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3432677.150889692</v>
+        <v>3591016.01073429</v>
       </c>
     </row>
     <row r="3">
@@ -18892,28 +18892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1564.512017738855</v>
+        <v>1657.508354157748</v>
       </c>
       <c r="AB3" t="n">
-        <v>2140.634364069238</v>
+        <v>2267.876054266376</v>
       </c>
       <c r="AC3" t="n">
-        <v>1936.335224761669</v>
+        <v>2051.433146631226</v>
       </c>
       <c r="AD3" t="n">
-        <v>1564512.017738855</v>
+        <v>1657508.354157748</v>
       </c>
       <c r="AE3" t="n">
-        <v>2140634.364069238</v>
+        <v>2267876.054266376</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.135230540629002e-06</v>
+        <v>2.182711258382696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.9794921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1936335.224761669</v>
+        <v>2051433.146631226</v>
       </c>
     </row>
     <row r="4">
@@ -18998,28 +18998,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1327.167024607835</v>
+        <v>1408.602824615296</v>
       </c>
       <c r="AB4" t="n">
-        <v>1815.88847354528</v>
+        <v>1927.312527809425</v>
       </c>
       <c r="AC4" t="n">
-        <v>1642.582626245598</v>
+        <v>1743.372525155414</v>
       </c>
       <c r="AD4" t="n">
-        <v>1327167.024607835</v>
+        <v>1408602.824615296</v>
       </c>
       <c r="AE4" t="n">
-        <v>1815888.47354528</v>
+        <v>1927312.527809425</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.258474670437046e-06</v>
+        <v>2.419673126509101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.61067708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1642582.626245598</v>
+        <v>1743372.525155414</v>
       </c>
     </row>
     <row r="5">
@@ -19104,28 +19104,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1213.283238052372</v>
+        <v>1294.633697205261</v>
       </c>
       <c r="AB5" t="n">
-        <v>1660.067652582023</v>
+        <v>1771.374939723969</v>
       </c>
       <c r="AC5" t="n">
-        <v>1501.633125739178</v>
+        <v>1602.317401617056</v>
       </c>
       <c r="AD5" t="n">
-        <v>1213283.238052372</v>
+        <v>1294633.697205261</v>
       </c>
       <c r="AE5" t="n">
-        <v>1660067.652582023</v>
+        <v>1771374.939723969</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.324581885634715e-06</v>
+        <v>2.546777672861714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.98079427083333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1501633.125739178</v>
+        <v>1602317.401617056</v>
       </c>
     </row>
     <row r="6">
@@ -19210,28 +19210,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1156.439952738531</v>
+        <v>1226.315216334558</v>
       </c>
       <c r="AB6" t="n">
-        <v>1582.292161866867</v>
+        <v>1677.898580198017</v>
       </c>
       <c r="AC6" t="n">
-        <v>1431.280418699289</v>
+        <v>1517.762294649365</v>
       </c>
       <c r="AD6" t="n">
-        <v>1156439.952738531</v>
+        <v>1226315.216334559</v>
       </c>
       <c r="AE6" t="n">
-        <v>1582292.161866867</v>
+        <v>1677898.580198016</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.363388186001489e-06</v>
+        <v>2.62139066614835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.640625</v>
       </c>
       <c r="AH6" t="n">
-        <v>1431280.418699289</v>
+        <v>1517762.294649365</v>
       </c>
     </row>
     <row r="7">
@@ -19316,28 +19316,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1114.965126917962</v>
+        <v>1184.669798313397</v>
       </c>
       <c r="AB7" t="n">
-        <v>1525.544475438985</v>
+        <v>1620.917481995288</v>
       </c>
       <c r="AC7" t="n">
-        <v>1379.948651818206</v>
+        <v>1466.219392485631</v>
       </c>
       <c r="AD7" t="n">
-        <v>1114965.126917962</v>
+        <v>1184669.798313397</v>
       </c>
       <c r="AE7" t="n">
-        <v>1525544.475438985</v>
+        <v>1620917.481995288</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391274120435904e-06</v>
+        <v>2.675007038208597e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1379948.651818206</v>
+        <v>1466219.392485631</v>
       </c>
     </row>
     <row r="8">
@@ -19422,28 +19422,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1084.930074503283</v>
+        <v>1154.634745898718</v>
       </c>
       <c r="AB8" t="n">
-        <v>1484.449191672226</v>
+        <v>1579.822198228529</v>
       </c>
       <c r="AC8" t="n">
-        <v>1342.775444256554</v>
+        <v>1429.046184923979</v>
       </c>
       <c r="AD8" t="n">
-        <v>1084930.074503283</v>
+        <v>1154634.745898718</v>
       </c>
       <c r="AE8" t="n">
-        <v>1484449.191672226</v>
+        <v>1579822.198228529</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.410677270619291e-06</v>
+        <v>2.712313534851916e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>1342775.444256554</v>
+        <v>1429046.184923979</v>
       </c>
     </row>
     <row r="9">
@@ -19528,28 +19528,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1061.13036865596</v>
+        <v>1119.359844494534</v>
       </c>
       <c r="AB9" t="n">
-        <v>1451.885384163</v>
+        <v>1531.557521908507</v>
       </c>
       <c r="AC9" t="n">
-        <v>1313.319480832418</v>
+        <v>1385.387821572041</v>
       </c>
       <c r="AD9" t="n">
-        <v>1061130.36865596</v>
+        <v>1119359.844494534</v>
       </c>
       <c r="AE9" t="n">
-        <v>1451885.384163</v>
+        <v>1531557.521908507</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.424815244371004e-06</v>
+        <v>2.739496660546796e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.1376953125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1313319.480832418</v>
+        <v>1385387.821572041</v>
       </c>
     </row>
     <row r="10">
@@ -19634,28 +19634,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1038.943115995611</v>
+        <v>1097.172591834185</v>
       </c>
       <c r="AB10" t="n">
-        <v>1421.527806240606</v>
+        <v>1501.199943986112</v>
       </c>
       <c r="AC10" t="n">
-        <v>1285.859187539808</v>
+        <v>1357.927528279431</v>
       </c>
       <c r="AD10" t="n">
-        <v>1038943.115995611</v>
+        <v>1097172.591834185</v>
       </c>
       <c r="AE10" t="n">
-        <v>1421527.806240605</v>
+        <v>1501199.943986112</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.437588172381173e-06</v>
+        <v>2.764055208588377e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.03841145833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1285859.187539808</v>
+        <v>1357927.528279431</v>
       </c>
     </row>
     <row r="11">
@@ -19740,28 +19740,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1009.863759222043</v>
+        <v>1079.653681963499</v>
       </c>
       <c r="AB11" t="n">
-        <v>1381.740147412331</v>
+        <v>1477.229798621283</v>
       </c>
       <c r="AC11" t="n">
-        <v>1249.868807027774</v>
+        <v>1336.245059945911</v>
       </c>
       <c r="AD11" t="n">
-        <v>1009863.759222043</v>
+        <v>1079653.681963499</v>
       </c>
       <c r="AE11" t="n">
-        <v>1381740.147412331</v>
+        <v>1477229.798621283</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.446070956632202e-06</v>
+        <v>2.780365084005305e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.97330729166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1249868.807027774</v>
+        <v>1336245.059945911</v>
       </c>
     </row>
     <row r="12">
@@ -19846,28 +19846,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>991.3125304686374</v>
+        <v>1061.102453210093</v>
       </c>
       <c r="AB12" t="n">
-        <v>1356.35753780947</v>
+        <v>1451.847189018423</v>
       </c>
       <c r="AC12" t="n">
-        <v>1226.908678060694</v>
+        <v>1313.284930978832</v>
       </c>
       <c r="AD12" t="n">
-        <v>991312.5304686375</v>
+        <v>1061102.453210093</v>
       </c>
       <c r="AE12" t="n">
-        <v>1356357.53780947</v>
+        <v>1451847.189018423</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.455041257219496e-06</v>
+        <v>2.797612308584126e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.90657552083333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1226908.678060694</v>
+        <v>1313284.930978832</v>
       </c>
     </row>
     <row r="13">
@@ -19952,28 +19952,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>976.3653548969878</v>
+        <v>1046.155277638444</v>
       </c>
       <c r="AB13" t="n">
-        <v>1335.906152769493</v>
+        <v>1431.395803978445</v>
       </c>
       <c r="AC13" t="n">
-        <v>1208.409144505233</v>
+        <v>1294.78539742337</v>
       </c>
       <c r="AD13" t="n">
-        <v>976365.3548969878</v>
+        <v>1046155.277638444</v>
       </c>
       <c r="AE13" t="n">
-        <v>1335906.152769492</v>
+        <v>1431395.803978445</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.461281466323701e-06</v>
+        <v>2.809610377856349e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH13" t="n">
-        <v>1208409.144505233</v>
+        <v>1294785.39742337</v>
       </c>
     </row>
     <row r="14">
@@ -20058,28 +20058,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>960.1593644050506</v>
+        <v>1029.949287146507</v>
       </c>
       <c r="AB14" t="n">
-        <v>1313.732401620583</v>
+        <v>1409.222052829535</v>
       </c>
       <c r="AC14" t="n">
-        <v>1188.35162504492</v>
+        <v>1274.727877963057</v>
       </c>
       <c r="AD14" t="n">
-        <v>960159.3644050506</v>
+        <v>1029949.287146506</v>
       </c>
       <c r="AE14" t="n">
-        <v>1313732.401620583</v>
+        <v>1409222.052829535</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.467619178695159e-06</v>
+        <v>2.821795916960951e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.81380208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1188351.62504492</v>
+        <v>1274727.877963057</v>
       </c>
     </row>
     <row r="15">
@@ -20164,28 +20164,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>948.0530022383431</v>
+        <v>1017.842924979799</v>
       </c>
       <c r="AB15" t="n">
-        <v>1297.167942809089</v>
+        <v>1392.657594018042</v>
       </c>
       <c r="AC15" t="n">
-        <v>1173.368054934032</v>
+        <v>1259.744307852169</v>
       </c>
       <c r="AD15" t="n">
-        <v>948053.0022383431</v>
+        <v>1017842.924979799</v>
       </c>
       <c r="AE15" t="n">
-        <v>1297167.94280909</v>
+        <v>1392657.594018042</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.471519309385287e-06</v>
+        <v>2.82929471025609e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.78450520833333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1173368.054934032</v>
+        <v>1259744.307852169</v>
       </c>
     </row>
     <row r="16">
@@ -20270,28 +20270,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>933.2079651513397</v>
+        <v>1002.997887892796</v>
       </c>
       <c r="AB16" t="n">
-        <v>1276.856308149837</v>
+        <v>1372.345959358789</v>
       </c>
       <c r="AC16" t="n">
-        <v>1154.9949341791</v>
+        <v>1241.371187097237</v>
       </c>
       <c r="AD16" t="n">
-        <v>933207.9651513398</v>
+        <v>1002997.887892796</v>
       </c>
       <c r="AE16" t="n">
-        <v>1276856.308149837</v>
+        <v>1372345.959358789</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.475906956411681e-06</v>
+        <v>2.837730852713122e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.751953125</v>
       </c>
       <c r="AH16" t="n">
-        <v>1154994.9341791</v>
+        <v>1241371.187097237</v>
       </c>
     </row>
     <row r="17">
@@ -20376,28 +20376,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>929.6944434986434</v>
+        <v>999.4843662400993</v>
       </c>
       <c r="AB17" t="n">
-        <v>1272.048952818982</v>
+        <v>1367.538604027935</v>
       </c>
       <c r="AC17" t="n">
-        <v>1150.646386093856</v>
+        <v>1237.022639011994</v>
       </c>
       <c r="AD17" t="n">
-        <v>929694.4434986435</v>
+        <v>999484.3662400993</v>
       </c>
       <c r="AE17" t="n">
-        <v>1272048.952818982</v>
+        <v>1367538.604027935</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.477272002153226e-06</v>
+        <v>2.84035543036642e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH17" t="n">
-        <v>1150646.386093856</v>
+        <v>1237022.639011994</v>
       </c>
     </row>
     <row r="18">
@@ -20482,28 +20482,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>934.1025582457635</v>
+        <v>1003.89248098722</v>
       </c>
       <c r="AB18" t="n">
-        <v>1278.080329888289</v>
+        <v>1373.569981097242</v>
       </c>
       <c r="AC18" t="n">
-        <v>1156.10213700076</v>
+        <v>1242.478389918897</v>
       </c>
       <c r="AD18" t="n">
-        <v>934102.5582457635</v>
+        <v>1003892.480987219</v>
       </c>
       <c r="AE18" t="n">
-        <v>1278080.32988829</v>
+        <v>1373569.981097242</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.477174498885972e-06</v>
+        <v>2.840167960534042e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.74381510416667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1156102.13700076</v>
+        <v>1242478.389918897</v>
       </c>
     </row>
   </sheetData>
@@ -20779,28 +20779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4015.233669742068</v>
+        <v>4160.17734281391</v>
       </c>
       <c r="AB2" t="n">
-        <v>5493.819846549034</v>
+        <v>5692.138174509498</v>
       </c>
       <c r="AC2" t="n">
-        <v>4969.497391018769</v>
+        <v>5148.8884961002</v>
       </c>
       <c r="AD2" t="n">
-        <v>4015233.669742068</v>
+        <v>4160177.34281391</v>
       </c>
       <c r="AE2" t="n">
-        <v>5493819.846549034</v>
+        <v>5692138.174509497</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.534224280899115e-07</v>
+        <v>1.217276423776819e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.4423828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4969497.391018769</v>
+        <v>5148888.4961002</v>
       </c>
     </row>
     <row r="3">
@@ -20885,28 +20885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1966.292531264831</v>
+        <v>2050.942608848969</v>
       </c>
       <c r="AB3" t="n">
-        <v>2690.368187980746</v>
+        <v>2806.190158629219</v>
       </c>
       <c r="AC3" t="n">
-        <v>2433.60322407533</v>
+        <v>2538.371308402269</v>
       </c>
       <c r="AD3" t="n">
-        <v>1966292.531264831</v>
+        <v>2050942.608848969</v>
       </c>
       <c r="AE3" t="n">
-        <v>2690368.187980746</v>
+        <v>2806190.158629219</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.014719950981625e-06</v>
+        <v>1.890346305798885e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.09602864583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2433603.22407533</v>
+        <v>2538371.308402269</v>
       </c>
     </row>
     <row r="4">
@@ -20991,28 +20991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1604.801537246918</v>
+        <v>1689.280933121913</v>
       </c>
       <c r="AB4" t="n">
-        <v>2195.760262108325</v>
+        <v>2311.348698512402</v>
       </c>
       <c r="AC4" t="n">
-        <v>1986.199984461589</v>
+        <v>2090.756822724651</v>
       </c>
       <c r="AD4" t="n">
-        <v>1604801.537246918</v>
+        <v>1689280.933121913</v>
       </c>
       <c r="AE4" t="n">
-        <v>2195760.262108325</v>
+        <v>2311348.698512402</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.15419453522896e-06</v>
+        <v>2.150176877603184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.271484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1986199.984461589</v>
+        <v>2090756.822724651</v>
       </c>
     </row>
     <row r="5">
@@ -21097,28 +21097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1452.532686838885</v>
+        <v>1525.004568129081</v>
       </c>
       <c r="AB5" t="n">
-        <v>1987.41930335248</v>
+        <v>2086.57852856748</v>
       </c>
       <c r="AC5" t="n">
-        <v>1797.74279440103</v>
+        <v>1887.438402332357</v>
       </c>
       <c r="AD5" t="n">
-        <v>1452532.686838885</v>
+        <v>1525004.568129081</v>
       </c>
       <c r="AE5" t="n">
-        <v>1987419.30335248</v>
+        <v>2086578.52856748</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.227978660768712e-06</v>
+        <v>2.287631107221652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.47395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1797742.79440103</v>
+        <v>1887438.402332357</v>
       </c>
     </row>
     <row r="6">
@@ -21203,28 +21203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1372.938651391682</v>
+        <v>1445.410532681879</v>
       </c>
       <c r="AB6" t="n">
-        <v>1878.515232612598</v>
+        <v>1977.674457827599</v>
       </c>
       <c r="AC6" t="n">
-        <v>1699.232375324739</v>
+        <v>1788.927983256066</v>
       </c>
       <c r="AD6" t="n">
-        <v>1372938.651391682</v>
+        <v>1445410.532681879</v>
       </c>
       <c r="AE6" t="n">
-        <v>1878515.232612598</v>
+        <v>1977674.457827599</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.274470188851157e-06</v>
+        <v>2.374241297823085e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.01822916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1699232.375324739</v>
+        <v>1788927.983256066</v>
       </c>
     </row>
     <row r="7">
@@ -21309,28 +21309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1310.291002236153</v>
+        <v>1382.848134872371</v>
       </c>
       <c r="AB7" t="n">
-        <v>1792.797955218784</v>
+        <v>1892.073825086434</v>
       </c>
       <c r="AC7" t="n">
-        <v>1621.695834580436</v>
+        <v>1711.496954762476</v>
       </c>
       <c r="AD7" t="n">
-        <v>1310291.002236153</v>
+        <v>1382848.134872371</v>
       </c>
       <c r="AE7" t="n">
-        <v>1792797.955218785</v>
+        <v>1892073.825086434</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305056720484344e-06</v>
+        <v>2.43122168637666e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1621695.834580436</v>
+        <v>1711496.954762476</v>
       </c>
     </row>
     <row r="8">
@@ -21415,28 +21415,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1272.758581021733</v>
+        <v>1345.31571365795</v>
       </c>
       <c r="AB8" t="n">
-        <v>1741.444440699652</v>
+        <v>1840.720310567302</v>
       </c>
       <c r="AC8" t="n">
-        <v>1575.2434274119</v>
+        <v>1665.044547593939</v>
       </c>
       <c r="AD8" t="n">
-        <v>1272758.581021733</v>
+        <v>1345315.713657951</v>
       </c>
       <c r="AE8" t="n">
-        <v>1741444.440699652</v>
+        <v>1840720.310567301</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.328020147310491e-06</v>
+        <v>2.474000808859958e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.53483072916667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1575243.4274119</v>
+        <v>1665044.547593939</v>
       </c>
     </row>
     <row r="9">
@@ -21521,28 +21521,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1243.416381288447</v>
+        <v>1315.802921724072</v>
       </c>
       <c r="AB9" t="n">
-        <v>1701.297148538078</v>
+        <v>1800.33960663088</v>
       </c>
       <c r="AC9" t="n">
-        <v>1538.927736467148</v>
+        <v>1628.517721366536</v>
       </c>
       <c r="AD9" t="n">
-        <v>1243416.381288447</v>
+        <v>1315802.921724072</v>
       </c>
       <c r="AE9" t="n">
-        <v>1701297.148538078</v>
+        <v>1800339.60663088</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.345619167050202e-06</v>
+        <v>2.506786447812322e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.38346354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1538927.736467148</v>
+        <v>1628517.721366536</v>
       </c>
     </row>
     <row r="10">
@@ -21627,28 +21627,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1219.255237606604</v>
+        <v>1291.641778042229</v>
       </c>
       <c r="AB10" t="n">
-        <v>1668.238805838149</v>
+        <v>1767.281263930951</v>
       </c>
       <c r="AC10" t="n">
-        <v>1509.024435596825</v>
+        <v>1598.614420496213</v>
       </c>
       <c r="AD10" t="n">
-        <v>1219255.237606604</v>
+        <v>1291641.778042229</v>
       </c>
       <c r="AE10" t="n">
-        <v>1668238.805838149</v>
+        <v>1767281.263930951</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.360018365019057e-06</v>
+        <v>2.533611061500621e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.26302083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1509024.435596825</v>
+        <v>1598614.420496213</v>
       </c>
     </row>
     <row r="11">
@@ -21733,28 +21733,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1199.948535774085</v>
+        <v>1260.412902479484</v>
       </c>
       <c r="AB11" t="n">
-        <v>1641.822524639326</v>
+        <v>1724.552538665249</v>
       </c>
       <c r="AC11" t="n">
-        <v>1485.129287200134</v>
+        <v>1559.963664799727</v>
       </c>
       <c r="AD11" t="n">
-        <v>1199948.535774085</v>
+        <v>1260412.902479484</v>
       </c>
       <c r="AE11" t="n">
-        <v>1641822.524639326</v>
+        <v>1724552.538665249</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.370370729571828e-06</v>
+        <v>2.552896731472599e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.1767578125</v>
       </c>
       <c r="AH11" t="n">
-        <v>1485129.287200134</v>
+        <v>1559963.664799727</v>
       </c>
     </row>
     <row r="12">
@@ -21839,28 +21839,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1184.853989438861</v>
+        <v>1245.318356144259</v>
       </c>
       <c r="AB12" t="n">
-        <v>1621.169500419086</v>
+        <v>1703.899514445009</v>
       </c>
       <c r="AC12" t="n">
-        <v>1466.447358624772</v>
+        <v>1541.281736224365</v>
       </c>
       <c r="AD12" t="n">
-        <v>1184853.989438861</v>
+        <v>1245318.356144259</v>
       </c>
       <c r="AE12" t="n">
-        <v>1621169.500419086</v>
+        <v>1703899.514445009</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.37874673361907e-06</v>
+        <v>2.568500591722656e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.11002604166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1466447.358624772</v>
+        <v>1541281.736224364</v>
       </c>
     </row>
     <row r="13">
@@ -21945,28 +21945,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1168.149671183088</v>
+        <v>1228.614037888487</v>
       </c>
       <c r="AB13" t="n">
-        <v>1598.313915239028</v>
+        <v>1681.043929264951</v>
       </c>
       <c r="AC13" t="n">
-        <v>1445.773078416283</v>
+        <v>1520.607456015876</v>
       </c>
       <c r="AD13" t="n">
-        <v>1168149.671183088</v>
+        <v>1228614.037888487</v>
       </c>
       <c r="AE13" t="n">
-        <v>1598313.915239028</v>
+        <v>1681043.929264951</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.386840400451236e-06</v>
+        <v>2.583578479155293e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.044921875</v>
       </c>
       <c r="AH13" t="n">
-        <v>1445773.078416283</v>
+        <v>1520607.456015876</v>
       </c>
     </row>
     <row r="14">
@@ -22051,28 +22051,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1142.424451776339</v>
+        <v>1214.896243557985</v>
       </c>
       <c r="AB14" t="n">
-        <v>1563.115535130131</v>
+        <v>1662.274637875583</v>
       </c>
       <c r="AC14" t="n">
-        <v>1413.933982303744</v>
+        <v>1503.629479453844</v>
       </c>
       <c r="AD14" t="n">
-        <v>1142424.451776339</v>
+        <v>1214896.243557985</v>
       </c>
       <c r="AE14" t="n">
-        <v>1563115.535130131</v>
+        <v>1662274.637875583</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.392675369562798e-06</v>
+        <v>2.594448584048591e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.99934895833333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1413933.982303743</v>
+        <v>1503629.479453844</v>
       </c>
     </row>
     <row r="15">
@@ -22157,28 +22157,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1128.578792544232</v>
+        <v>1201.050584325877</v>
       </c>
       <c r="AB15" t="n">
-        <v>1544.171293341387</v>
+        <v>1643.330396086839</v>
       </c>
       <c r="AC15" t="n">
-        <v>1396.797752362906</v>
+        <v>1486.493249513007</v>
       </c>
       <c r="AD15" t="n">
-        <v>1128578.792544232</v>
+        <v>1201050.584325877</v>
       </c>
       <c r="AE15" t="n">
-        <v>1544171.293341387</v>
+        <v>1643330.396086839</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.399357350319587e-06</v>
+        <v>2.606896607394141e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.947265625</v>
       </c>
       <c r="AH15" t="n">
-        <v>1396797.752362906</v>
+        <v>1486493.249513007</v>
       </c>
     </row>
     <row r="16">
@@ -22263,28 +22263,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1116.9258538633</v>
+        <v>1189.397645644946</v>
       </c>
       <c r="AB16" t="n">
-        <v>1528.227228546765</v>
+        <v>1627.386331292217</v>
       </c>
       <c r="AC16" t="n">
-        <v>1382.375366734648</v>
+        <v>1472.070863884748</v>
       </c>
       <c r="AD16" t="n">
-        <v>1116925.8538633</v>
+        <v>1189397.645644946</v>
       </c>
       <c r="AE16" t="n">
-        <v>1528227.228546765</v>
+        <v>1627386.331292217</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.403780633355771e-06</v>
+        <v>2.61513684820035e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.91145833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1382375.366734648</v>
+        <v>1472070.863884748</v>
       </c>
     </row>
     <row r="17">
@@ -22369,28 +22369,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1104.893055559544</v>
+        <v>1177.36484734119</v>
       </c>
       <c r="AB17" t="n">
-        <v>1511.76342305797</v>
+        <v>1610.922525803422</v>
       </c>
       <c r="AC17" t="n">
-        <v>1367.482843734607</v>
+        <v>1457.178340884708</v>
       </c>
       <c r="AD17" t="n">
-        <v>1104893.055559544</v>
+        <v>1177364.84734119</v>
       </c>
       <c r="AE17" t="n">
-        <v>1511763.42305797</v>
+        <v>1610922.525803422</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.408862703227132e-06</v>
+        <v>2.624604358913867e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1367482.843734607</v>
+        <v>1457178.340884708</v>
       </c>
     </row>
     <row r="18">
@@ -22475,28 +22475,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1094.148153019276</v>
+        <v>1166.619944800922</v>
       </c>
       <c r="AB18" t="n">
-        <v>1497.06177337073</v>
+        <v>1596.220876116182</v>
       </c>
       <c r="AC18" t="n">
-        <v>1354.184298859622</v>
+        <v>1443.879796009723</v>
       </c>
       <c r="AD18" t="n">
-        <v>1094148.153019276</v>
+        <v>1166619.944800921</v>
       </c>
       <c r="AE18" t="n">
-        <v>1497061.77337073</v>
+        <v>1596220.876116182</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.411686075377887e-06</v>
+        <v>2.629864087088043e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.85123697916667</v>
       </c>
       <c r="AH18" t="n">
-        <v>1354184.298859622</v>
+        <v>1443879.796009723</v>
       </c>
     </row>
     <row r="19">
@@ -22581,28 +22581,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1084.39341158909</v>
+        <v>1156.865203370736</v>
       </c>
       <c r="AB19" t="n">
-        <v>1483.714905797131</v>
+        <v>1582.874008542583</v>
       </c>
       <c r="AC19" t="n">
-        <v>1342.111237594801</v>
+        <v>1431.806734744902</v>
       </c>
       <c r="AD19" t="n">
-        <v>1084393.41158909</v>
+        <v>1156865.203370736</v>
       </c>
       <c r="AE19" t="n">
-        <v>1483714.905797131</v>
+        <v>1582874.008542583</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.414509447528643e-06</v>
+        <v>2.635123815262219e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.82845052083333</v>
       </c>
       <c r="AH19" t="n">
-        <v>1342111.237594801</v>
+        <v>1431806.734744902</v>
       </c>
     </row>
     <row r="20">
@@ -22687,28 +22687,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1073.610727955831</v>
+        <v>1146.082519737477</v>
       </c>
       <c r="AB20" t="n">
-        <v>1468.961562351677</v>
+        <v>1568.12066509713</v>
       </c>
       <c r="AC20" t="n">
-        <v>1328.765932541334</v>
+        <v>1418.461429691435</v>
       </c>
       <c r="AD20" t="n">
-        <v>1073610.727955831</v>
+        <v>1146082.519737477</v>
       </c>
       <c r="AE20" t="n">
-        <v>1468961.562351677</v>
+        <v>1568120.66509713</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.417521044489449e-06</v>
+        <v>2.64073419198134e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.8056640625</v>
       </c>
       <c r="AH20" t="n">
-        <v>1328765.932541334</v>
+        <v>1418461.429691435</v>
       </c>
     </row>
     <row r="21">
@@ -22793,28 +22793,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1064.399328097462</v>
+        <v>1136.871119879107</v>
       </c>
       <c r="AB21" t="n">
-        <v>1456.358118687175</v>
+        <v>1555.517221432627</v>
       </c>
       <c r="AC21" t="n">
-        <v>1317.365343851128</v>
+        <v>1407.060841001228</v>
       </c>
       <c r="AD21" t="n">
-        <v>1064399.328097462</v>
+        <v>1136871.119879107</v>
       </c>
       <c r="AE21" t="n">
-        <v>1456358.118687175</v>
+        <v>1555517.221432627</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.421191428285432e-06</v>
+        <v>2.647571838607769e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.77799479166667</v>
       </c>
       <c r="AH21" t="n">
-        <v>1317365.343851128</v>
+        <v>1407060.841001228</v>
       </c>
     </row>
     <row r="22">
@@ -22899,28 +22899,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1052.624018790773</v>
+        <v>1125.095810572418</v>
       </c>
       <c r="AB22" t="n">
-        <v>1440.24662100378</v>
+        <v>1539.405723749232</v>
       </c>
       <c r="AC22" t="n">
-        <v>1302.791504894007</v>
+        <v>1392.487002044107</v>
       </c>
       <c r="AD22" t="n">
-        <v>1052624.018790773</v>
+        <v>1125095.810572418</v>
       </c>
       <c r="AE22" t="n">
-        <v>1440246.62100378</v>
+        <v>1539405.723749232</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.424297137651263e-06</v>
+        <v>2.653357539599363e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>1302791.504894007</v>
+        <v>1392487.002044107</v>
       </c>
     </row>
     <row r="23">
@@ -23005,28 +23005,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1046.483649660278</v>
+        <v>1118.955441441923</v>
       </c>
       <c r="AB23" t="n">
-        <v>1431.84509706547</v>
+        <v>1531.004199810922</v>
       </c>
       <c r="AC23" t="n">
-        <v>1295.191810608756</v>
+        <v>1384.887307758857</v>
       </c>
       <c r="AD23" t="n">
-        <v>1046483.649660278</v>
+        <v>1118955.441441923</v>
       </c>
       <c r="AE23" t="n">
-        <v>1431845.09706547</v>
+        <v>1531004.199810922</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.425614711321616e-06</v>
+        <v>2.655812079413978e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.74544270833333</v>
       </c>
       <c r="AH23" t="n">
-        <v>1295191.810608756</v>
+        <v>1384887.307758857</v>
       </c>
     </row>
     <row r="24">
@@ -23111,28 +23111,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>1042.071815289487</v>
+        <v>1114.543607071133</v>
       </c>
       <c r="AB24" t="n">
-        <v>1425.808630642959</v>
+        <v>1524.967733388411</v>
       </c>
       <c r="AC24" t="n">
-        <v>1289.731456069376</v>
+        <v>1379.426953219476</v>
       </c>
       <c r="AD24" t="n">
-        <v>1042071.815289487</v>
+        <v>1114543.607071133</v>
       </c>
       <c r="AE24" t="n">
-        <v>1425808.630642959</v>
+        <v>1524967.733388411</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.427120509802019e-06</v>
+        <v>2.658617267773539e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>10.732421875</v>
       </c>
       <c r="AH24" t="n">
-        <v>1289731.456069376</v>
+        <v>1379426.953219476</v>
       </c>
     </row>
     <row r="25">
@@ -23217,28 +23217,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>1046.279961745757</v>
+        <v>1118.751753527403</v>
       </c>
       <c r="AB25" t="n">
-        <v>1431.566402274746</v>
+        <v>1530.725505020198</v>
       </c>
       <c r="AC25" t="n">
-        <v>1294.939714057708</v>
+        <v>1384.635211207809</v>
       </c>
       <c r="AD25" t="n">
-        <v>1046279.961745757</v>
+        <v>1118751.753527403</v>
       </c>
       <c r="AE25" t="n">
-        <v>1431566.402274746</v>
+        <v>1530725.505020198</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.426932284991968e-06</v>
+        <v>2.658266619228594e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10.73404947916667</v>
       </c>
       <c r="AH25" t="n">
-        <v>1294939.714057708</v>
+        <v>1384635.211207809</v>
       </c>
     </row>
   </sheetData>
@@ -23514,28 +23514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1891.396669294541</v>
+        <v>1991.39567984195</v>
       </c>
       <c r="AB2" t="n">
-        <v>2587.892365460762</v>
+        <v>2724.715423336714</v>
       </c>
       <c r="AC2" t="n">
-        <v>2340.907550230933</v>
+        <v>2464.672407495572</v>
       </c>
       <c r="AD2" t="n">
-        <v>1891396.669294541</v>
+        <v>1991395.67984195</v>
       </c>
       <c r="AE2" t="n">
-        <v>2587892.365460761</v>
+        <v>2724715.423336714</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.800733667856746e-07</v>
+        <v>1.9645544713929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.90755208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2340907.550230933</v>
+        <v>2464672.407495572</v>
       </c>
     </row>
     <row r="3">
@@ -23620,28 +23620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1214.354018496713</v>
+        <v>1292.112062065905</v>
       </c>
       <c r="AB3" t="n">
-        <v>1661.53274162547</v>
+        <v>1767.924727279612</v>
       </c>
       <c r="AC3" t="n">
-        <v>1502.958388740584</v>
+        <v>1599.196472605984</v>
       </c>
       <c r="AD3" t="n">
-        <v>1214354.018496713</v>
+        <v>1292112.062065905</v>
       </c>
       <c r="AE3" t="n">
-        <v>1661532.74162547</v>
+        <v>1767924.727279612</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.276559305293869e-06</v>
+        <v>2.558859750916702e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.98177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1502958.388740584</v>
+        <v>1599196.472605984</v>
       </c>
     </row>
     <row r="4">
@@ -23726,28 +23726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1058.309292609519</v>
+        <v>1135.981995324139</v>
       </c>
       <c r="AB4" t="n">
-        <v>1448.025463459168</v>
+        <v>1554.300681991112</v>
       </c>
       <c r="AC4" t="n">
-        <v>1309.827945543127</v>
+        <v>1405.960406376588</v>
       </c>
       <c r="AD4" t="n">
-        <v>1058309.292609519</v>
+        <v>1135981.995324139</v>
       </c>
       <c r="AE4" t="n">
-        <v>1448025.463459168</v>
+        <v>1554300.681991112</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.381836249118551e-06</v>
+        <v>2.769887106352008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1309827.945543127</v>
+        <v>1405960.406376588</v>
       </c>
     </row>
     <row r="5">
@@ -23832,28 +23832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>988.5282970116237</v>
+        <v>1055.251197946278</v>
       </c>
       <c r="AB5" t="n">
-        <v>1352.548026761873</v>
+        <v>1443.841243427307</v>
       </c>
       <c r="AC5" t="n">
-        <v>1223.462741400797</v>
+        <v>1306.043061598516</v>
       </c>
       <c r="AD5" t="n">
-        <v>988528.2970116237</v>
+        <v>1055251.197946278</v>
       </c>
       <c r="AE5" t="n">
-        <v>1352548.026761873</v>
+        <v>1443841.243427307</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.436307395101341e-06</v>
+        <v>2.879074374396388e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.5380859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1223462.741400797</v>
+        <v>1306043.061598517</v>
       </c>
     </row>
     <row r="6">
@@ -23938,28 +23938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>944.2958672217575</v>
+        <v>1010.84817595582</v>
       </c>
       <c r="AB6" t="n">
-        <v>1292.027264926299</v>
+        <v>1383.087069816886</v>
       </c>
       <c r="AC6" t="n">
-        <v>1168.717996133387</v>
+        <v>1251.087181048455</v>
       </c>
       <c r="AD6" t="n">
-        <v>944295.8672217574</v>
+        <v>1010848.17595582</v>
       </c>
       <c r="AE6" t="n">
-        <v>1292027.264926299</v>
+        <v>1383087.069816886</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.469499158821696e-06</v>
+        <v>2.94560717698044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1168717.996133387</v>
+        <v>1251087.181048455</v>
       </c>
     </row>
     <row r="7">
@@ -24044,28 +24044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>909.9866712943723</v>
+        <v>965.5891782484686</v>
       </c>
       <c r="AB7" t="n">
-        <v>1245.083909443552</v>
+        <v>1321.161712467628</v>
       </c>
       <c r="AC7" t="n">
-        <v>1126.2548486125</v>
+        <v>1195.071892891826</v>
       </c>
       <c r="AD7" t="n">
-        <v>909986.6712943723</v>
+        <v>965589.1782484686</v>
       </c>
       <c r="AE7" t="n">
-        <v>1245083.909443552</v>
+        <v>1321161.712467628</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.493629367415941e-06</v>
+        <v>2.993976116282343e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.09537760416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1126254.8486125</v>
+        <v>1195071.892891826</v>
       </c>
     </row>
     <row r="8">
@@ -24150,28 +24150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>872.2047863087396</v>
+        <v>938.8423463888222</v>
       </c>
       <c r="AB8" t="n">
-        <v>1193.389067587081</v>
+        <v>1284.565517130317</v>
       </c>
       <c r="AC8" t="n">
-        <v>1079.493689908645</v>
+        <v>1161.968387074426</v>
       </c>
       <c r="AD8" t="n">
-        <v>872204.7863087396</v>
+        <v>938842.3463888222</v>
       </c>
       <c r="AE8" t="n">
-        <v>1193389.067587081</v>
+        <v>1284565.517130317</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.509614357919301e-06</v>
+        <v>3.02601798746546e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1079493.689908645</v>
+        <v>1161968.387074426</v>
       </c>
     </row>
     <row r="9">
@@ -24256,28 +24256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>848.6086333838065</v>
+        <v>915.246193463889</v>
       </c>
       <c r="AB9" t="n">
-        <v>1161.10377016639</v>
+        <v>1252.280219709626</v>
       </c>
       <c r="AC9" t="n">
-        <v>1050.289655961085</v>
+        <v>1132.764353126866</v>
       </c>
       <c r="AD9" t="n">
-        <v>848608.6333838064</v>
+        <v>915246.193463889</v>
       </c>
       <c r="AE9" t="n">
-        <v>1161103.77016639</v>
+        <v>1252280.219709626</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.522239445960172e-06</v>
+        <v>3.051324943049578e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1050289.655961085</v>
+        <v>1132764.353126866</v>
       </c>
     </row>
     <row r="10">
@@ -24362,28 +24362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>826.5036875318303</v>
+        <v>893.1412476119131</v>
       </c>
       <c r="AB10" t="n">
-        <v>1130.858808050332</v>
+        <v>1222.035257593568</v>
       </c>
       <c r="AC10" t="n">
-        <v>1022.931230580313</v>
+        <v>1105.405927746093</v>
       </c>
       <c r="AD10" t="n">
-        <v>826503.6875318304</v>
+        <v>893141.247611913</v>
       </c>
       <c r="AE10" t="n">
-        <v>1130858.808050332</v>
+        <v>1222035.257593568</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.532217338121506e-06</v>
+        <v>3.07132560149509e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.8154296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1022931.230580313</v>
+        <v>1105405.927746093</v>
       </c>
     </row>
     <row r="11">
@@ -24468,28 +24468,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>817.7514617409944</v>
+        <v>884.3890218210769</v>
       </c>
       <c r="AB11" t="n">
-        <v>1118.883626602359</v>
+        <v>1210.060076145595</v>
       </c>
       <c r="AC11" t="n">
-        <v>1012.098943642462</v>
+        <v>1094.573640808242</v>
       </c>
       <c r="AD11" t="n">
-        <v>817751.4617409944</v>
+        <v>884389.0218210769</v>
       </c>
       <c r="AE11" t="n">
-        <v>1118883.626602359</v>
+        <v>1210060.076145595</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.535780871036268e-06</v>
+        <v>3.078468693797059e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.791015625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1012098.943642462</v>
+        <v>1094573.640808242</v>
       </c>
     </row>
     <row r="12">
@@ -24574,28 +24574,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>821.9633448100426</v>
+        <v>888.6009048901253</v>
       </c>
       <c r="AB12" t="n">
-        <v>1124.646510832598</v>
+        <v>1215.822960375834</v>
       </c>
       <c r="AC12" t="n">
-        <v>1017.311826290025</v>
+        <v>1099.786523455806</v>
       </c>
       <c r="AD12" t="n">
-        <v>821963.3448100426</v>
+        <v>888600.9048901253</v>
       </c>
       <c r="AE12" t="n">
-        <v>1124646.510832598</v>
+        <v>1215822.960375834</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.535577240583996e-06</v>
+        <v>3.07806051709409e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.791015625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1017311.826290025</v>
+        <v>1099786.523455806</v>
       </c>
     </row>
   </sheetData>
@@ -24871,28 +24871,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1373.857092646356</v>
+        <v>1448.373925203012</v>
       </c>
       <c r="AB2" t="n">
-        <v>1879.771884456012</v>
+        <v>1981.729102210664</v>
       </c>
       <c r="AC2" t="n">
-        <v>1700.36909407994</v>
+        <v>1792.595658069941</v>
       </c>
       <c r="AD2" t="n">
-        <v>1373857.092646356</v>
+        <v>1448373.925203012</v>
       </c>
       <c r="AE2" t="n">
-        <v>1879771.884456012</v>
+        <v>1981729.102210664</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.148286882243412e-06</v>
+        <v>2.402287969122879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.03255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1700369.09407994</v>
+        <v>1792595.658069941</v>
       </c>
     </row>
     <row r="3">
@@ -24977,28 +24977,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>968.8299689224938</v>
+        <v>1032.616211617705</v>
       </c>
       <c r="AB3" t="n">
-        <v>1325.595905241423</v>
+        <v>1412.871056547434</v>
       </c>
       <c r="AC3" t="n">
-        <v>1199.082892530719</v>
+        <v>1278.028625887528</v>
       </c>
       <c r="AD3" t="n">
-        <v>968829.9689224937</v>
+        <v>1032616.211617705</v>
       </c>
       <c r="AE3" t="n">
-        <v>1325595.905241423</v>
+        <v>1412871.056547434</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.405158668407035e-06</v>
+        <v>2.939679810003604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.28352864583333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1199082.892530719</v>
+        <v>1278028.625887528</v>
       </c>
     </row>
     <row r="4">
@@ -25083,28 +25083,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>856.391029478764</v>
+        <v>920.2625235199963</v>
       </c>
       <c r="AB4" t="n">
-        <v>1171.751987838595</v>
+        <v>1259.143783797255</v>
       </c>
       <c r="AC4" t="n">
-        <v>1059.921622683523</v>
+        <v>1138.972868291044</v>
       </c>
       <c r="AD4" t="n">
-        <v>856391.029478764</v>
+        <v>920262.5235199963</v>
       </c>
       <c r="AE4" t="n">
-        <v>1171751.987838595</v>
+        <v>1259143.783797255</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.496156188030647e-06</v>
+        <v>3.130052311851525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.5380859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1059921.622683523</v>
+        <v>1138972.868291044</v>
       </c>
     </row>
     <row r="5">
@@ -25189,28 +25189,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>803.4474610436546</v>
+        <v>856.673795586566</v>
       </c>
       <c r="AB5" t="n">
-        <v>1099.312261800285</v>
+        <v>1172.13888090205</v>
       </c>
       <c r="AC5" t="n">
-        <v>994.3954424285153</v>
+        <v>1060.271591216009</v>
       </c>
       <c r="AD5" t="n">
-        <v>803447.4610436546</v>
+        <v>856673.795586566</v>
       </c>
       <c r="AE5" t="n">
-        <v>1099312.261800285</v>
+        <v>1172138.880902051</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.541654947842453e-06</v>
+        <v>3.225238562775484e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.1962890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>994395.4424285153</v>
+        <v>1060271.59121601</v>
       </c>
     </row>
     <row r="6">
@@ -25295,28 +25295,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>753.9547203944381</v>
+        <v>817.7408735810988</v>
       </c>
       <c r="AB6" t="n">
-        <v>1031.594110578411</v>
+        <v>1118.869139414873</v>
       </c>
       <c r="AC6" t="n">
-        <v>933.1402165162342</v>
+        <v>1012.085839091817</v>
       </c>
       <c r="AD6" t="n">
-        <v>753954.7203944381</v>
+        <v>817740.8735810987</v>
       </c>
       <c r="AE6" t="n">
-        <v>1031594.110578411</v>
+        <v>1118869.139414873</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.570820819516688e-06</v>
+        <v>3.286255390290844e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>933140.2165162342</v>
+        <v>1012085.839091817</v>
       </c>
     </row>
     <row r="7">
@@ -25401,28 +25401,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>726.3312577299627</v>
+        <v>790.1174109166233</v>
       </c>
       <c r="AB7" t="n">
-        <v>993.7984702997117</v>
+        <v>1081.073499136174</v>
       </c>
       <c r="AC7" t="n">
-        <v>898.9517390992199</v>
+        <v>977.8973616748024</v>
       </c>
       <c r="AD7" t="n">
-        <v>726331.2577299627</v>
+        <v>790117.4109166233</v>
       </c>
       <c r="AE7" t="n">
-        <v>993798.4702997117</v>
+        <v>1081073.499136174</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.586199188217648e-06</v>
+        <v>3.318427899344396e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.88216145833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>898951.7390992199</v>
+        <v>977897.3616748024</v>
       </c>
     </row>
     <row r="8">
@@ -25507,28 +25507,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>728.9154455041753</v>
+        <v>792.7015986908358</v>
       </c>
       <c r="AB8" t="n">
-        <v>997.3342700187077</v>
+        <v>1084.60929885517</v>
       </c>
       <c r="AC8" t="n">
-        <v>902.1500870555609</v>
+        <v>981.0957096311434</v>
       </c>
       <c r="AD8" t="n">
-        <v>728915.4455041753</v>
+        <v>792701.5986908358</v>
       </c>
       <c r="AE8" t="n">
-        <v>997334.2700187077</v>
+        <v>1084609.29885517</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.586623419078364e-06</v>
+        <v>3.319315416835529e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.88053385416667</v>
       </c>
       <c r="AH8" t="n">
-        <v>902150.0870555609</v>
+        <v>981095.7096311435</v>
       </c>
     </row>
   </sheetData>
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1051.559685711385</v>
+        <v>1133.512085625394</v>
       </c>
       <c r="AB2" t="n">
-        <v>1438.790353529501</v>
+        <v>1550.921242576563</v>
       </c>
       <c r="AC2" t="n">
-        <v>1301.474221543588</v>
+        <v>1402.90349591669</v>
       </c>
       <c r="AD2" t="n">
-        <v>1051559.685711385</v>
+        <v>1133512.085625394</v>
       </c>
       <c r="AE2" t="n">
-        <v>1438790.353529501</v>
+        <v>1550921.242576563</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.287687670734367e-06</v>
+        <v>2.799247272799398e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.8671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1301474.221543588</v>
+        <v>1402903.49591669</v>
       </c>
     </row>
     <row r="3">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>785.4654919359281</v>
+        <v>847.0578031532921</v>
       </c>
       <c r="AB3" t="n">
-        <v>1074.708538358606</v>
+        <v>1158.981855827199</v>
       </c>
       <c r="AC3" t="n">
-        <v>972.1398638205668</v>
+        <v>1048.370254148302</v>
       </c>
       <c r="AD3" t="n">
-        <v>785465.4919359281</v>
+        <v>847057.803153292</v>
       </c>
       <c r="AE3" t="n">
-        <v>1074708.538358606</v>
+        <v>1158981.855827199</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511828925851545e-06</v>
+        <v>3.286498033498825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.8115234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>972139.8638205668</v>
+        <v>1048370.254148302</v>
       </c>
     </row>
     <row r="4">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>707.8995700947431</v>
+        <v>769.3212891115149</v>
       </c>
       <c r="AB4" t="n">
-        <v>968.5794221285352</v>
+        <v>1052.619327822282</v>
       </c>
       <c r="AC4" t="n">
-        <v>876.1395614903439</v>
+        <v>952.1588165354278</v>
       </c>
       <c r="AD4" t="n">
-        <v>707899.5700947432</v>
+        <v>769321.2891115149</v>
       </c>
       <c r="AE4" t="n">
-        <v>968579.4221285351</v>
+        <v>1052619.327822282</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.589285473141181e-06</v>
+        <v>3.454877395737589e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.2353515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>876139.5614903439</v>
+        <v>952158.8165354278</v>
       </c>
     </row>
     <row r="5">
@@ -48143,28 +48143,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>655.3077396278779</v>
+        <v>716.8147099906702</v>
       </c>
       <c r="AB5" t="n">
-        <v>896.6209594959606</v>
+        <v>980.7775098423565</v>
       </c>
       <c r="AC5" t="n">
-        <v>811.0487135370857</v>
+        <v>887.1734808328818</v>
       </c>
       <c r="AD5" t="n">
-        <v>655307.7396278779</v>
+        <v>716814.7099906702</v>
       </c>
       <c r="AE5" t="n">
-        <v>896620.9594959606</v>
+        <v>980777.5098423566</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.624612680261951e-06</v>
+        <v>3.53167364877e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.9912109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>811048.7135370858</v>
+        <v>887173.4808328818</v>
       </c>
     </row>
     <row r="6">
@@ -48249,28 +48249,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>658.6154329749004</v>
+        <v>720.1224033376926</v>
       </c>
       <c r="AB6" t="n">
-        <v>901.1466914584882</v>
+        <v>985.3032418048842</v>
       </c>
       <c r="AC6" t="n">
-        <v>815.1425159930144</v>
+        <v>891.2672832888105</v>
       </c>
       <c r="AD6" t="n">
-        <v>658615.4329749004</v>
+        <v>720122.4033376926</v>
       </c>
       <c r="AE6" t="n">
-        <v>901146.6914584882</v>
+        <v>985303.2418048843</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.62494181573202e-06</v>
+        <v>3.532389141810675e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>815142.5159930144</v>
+        <v>891267.2832888105</v>
       </c>
     </row>
   </sheetData>
@@ -48546,28 +48546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>585.6353874051853</v>
+        <v>642.624400105408</v>
       </c>
       <c r="AB2" t="n">
-        <v>801.292173457625</v>
+        <v>879.2670548118685</v>
       </c>
       <c r="AC2" t="n">
-        <v>724.8179730434574</v>
+        <v>795.3510411596852</v>
       </c>
       <c r="AD2" t="n">
-        <v>585635.3874051853</v>
+        <v>642624.4001054079</v>
       </c>
       <c r="AE2" t="n">
-        <v>801292.1734576251</v>
+        <v>879267.0548118686</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.590388957764869e-06</v>
+        <v>3.782783018533087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>724817.9730434574</v>
+        <v>795351.0411596852</v>
       </c>
     </row>
     <row r="3">
@@ -48652,28 +48652,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>525.5826553548511</v>
+        <v>582.4863272005023</v>
       </c>
       <c r="AB3" t="n">
-        <v>719.1253761268011</v>
+        <v>796.9834903588469</v>
       </c>
       <c r="AC3" t="n">
-        <v>650.493059528063</v>
+        <v>720.9205046123518</v>
       </c>
       <c r="AD3" t="n">
-        <v>525582.6553548512</v>
+        <v>582486.3272005023</v>
       </c>
       <c r="AE3" t="n">
-        <v>719125.3761268011</v>
+        <v>796983.4903588468</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.667871257054761e-06</v>
+        <v>3.967076756589861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.49088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>650493.0595280629</v>
+        <v>720920.5046123518</v>
       </c>
     </row>
   </sheetData>
@@ -48949,28 +48949,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2539.491261994808</v>
+        <v>2643.20065821374</v>
       </c>
       <c r="AB2" t="n">
-        <v>3474.643979108979</v>
+        <v>3616.543750351381</v>
       </c>
       <c r="AC2" t="n">
-        <v>3143.02883443614</v>
+        <v>3271.385890668742</v>
       </c>
       <c r="AD2" t="n">
-        <v>2539491.261994808</v>
+        <v>2643200.65821374</v>
       </c>
       <c r="AE2" t="n">
-        <v>3474643.979108979</v>
+        <v>3616543.750351381</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.420736658950672e-07</v>
+        <v>1.634109794609889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.03483072916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3143028.83443614</v>
+        <v>3271385.890668742</v>
       </c>
     </row>
     <row r="3">
@@ -49055,28 +49055,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1478.192695675263</v>
+        <v>1558.855489783338</v>
       </c>
       <c r="AB3" t="n">
-        <v>2022.528459482108</v>
+        <v>2132.894852972099</v>
       </c>
       <c r="AC3" t="n">
-        <v>1829.501181945656</v>
+        <v>1929.334361741169</v>
       </c>
       <c r="AD3" t="n">
-        <v>1478192.695675263</v>
+        <v>1558855.489783338</v>
       </c>
       <c r="AE3" t="n">
-        <v>2022528.459482108</v>
+        <v>2132894.852972099</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.167735882374425e-06</v>
+        <v>2.266082790841313e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.7255859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1829501.181945656</v>
+        <v>1929334.361741169</v>
       </c>
     </row>
     <row r="4">
@@ -49161,28 +49161,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1261.913602409673</v>
+        <v>1330.967888870574</v>
       </c>
       <c r="AB4" t="n">
-        <v>1726.605862515942</v>
+        <v>1821.088983711856</v>
       </c>
       <c r="AC4" t="n">
-        <v>1561.821022303968</v>
+        <v>1647.286807020838</v>
       </c>
       <c r="AD4" t="n">
-        <v>1261913.602409673</v>
+        <v>1330967.888870574</v>
       </c>
       <c r="AE4" t="n">
-        <v>1726605.862515942</v>
+        <v>1821088.983711856</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.28768041810828e-06</v>
+        <v>2.498844541494435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1561821.022303968</v>
+        <v>1647286.807020838</v>
       </c>
     </row>
     <row r="5">
@@ -49267,28 +49267,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1158.645664543925</v>
+        <v>1227.785202350847</v>
       </c>
       <c r="AB5" t="n">
-        <v>1585.310114068144</v>
+        <v>1679.909879916708</v>
       </c>
       <c r="AC5" t="n">
-        <v>1434.010341778199</v>
+        <v>1519.581638745781</v>
       </c>
       <c r="AD5" t="n">
-        <v>1158645.664543925</v>
+        <v>1227785.202350847</v>
       </c>
       <c r="AE5" t="n">
-        <v>1585310.114068144</v>
+        <v>1679909.879916708</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.350114601733291e-06</v>
+        <v>2.620002956859032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.87174479166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1434010.341778199</v>
+        <v>1519581.638745781</v>
       </c>
     </row>
     <row r="6">
@@ -49373,28 +49373,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1104.389855103194</v>
+        <v>1173.529392910115</v>
       </c>
       <c r="AB6" t="n">
-        <v>1511.074921993954</v>
+        <v>1605.674687842518</v>
       </c>
       <c r="AC6" t="n">
-        <v>1366.860052245823</v>
+        <v>1452.431349213406</v>
       </c>
       <c r="AD6" t="n">
-        <v>1104389.855103194</v>
+        <v>1173529.392910115</v>
       </c>
       <c r="AE6" t="n">
-        <v>1511074.921993954</v>
+        <v>1605674.687842518</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.388126581038109e-06</v>
+        <v>2.69376817504631e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.54622395833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1366860.052245823</v>
+        <v>1452431.349213406</v>
       </c>
     </row>
     <row r="7">
@@ -49479,28 +49479,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1064.956163560089</v>
+        <v>1133.925109166419</v>
       </c>
       <c r="AB7" t="n">
-        <v>1457.120005532989</v>
+        <v>1551.486359606707</v>
       </c>
       <c r="AC7" t="n">
-        <v>1318.054517285692</v>
+        <v>1403.414678970624</v>
       </c>
       <c r="AD7" t="n">
-        <v>1064956.163560089</v>
+        <v>1133925.109166419</v>
       </c>
       <c r="AE7" t="n">
-        <v>1457120.005532989</v>
+        <v>1551486.359606707</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.415207654377033e-06</v>
+        <v>2.746321115464708e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.32486979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1318054.517285692</v>
+        <v>1403414.678970624</v>
       </c>
     </row>
     <row r="8">
@@ -49585,28 +49585,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1035.704439939371</v>
+        <v>1093.32081095369</v>
       </c>
       <c r="AB8" t="n">
-        <v>1417.096506780154</v>
+        <v>1495.929767456839</v>
       </c>
       <c r="AC8" t="n">
-        <v>1281.850805080495</v>
+        <v>1353.160330001373</v>
       </c>
       <c r="AD8" t="n">
-        <v>1035704.439939371</v>
+        <v>1093320.81095369</v>
       </c>
       <c r="AE8" t="n">
-        <v>1417096.506780154</v>
+        <v>1495929.767456839</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.434312120659766e-06</v>
+        <v>2.783394826159869e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.17513020833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1281850.805080495</v>
+        <v>1353160.330001373</v>
       </c>
     </row>
     <row r="9">
@@ -49691,28 +49691,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1012.971766023847</v>
+        <v>1070.588137038166</v>
       </c>
       <c r="AB9" t="n">
-        <v>1385.992659434143</v>
+        <v>1464.825920110828</v>
       </c>
       <c r="AC9" t="n">
-        <v>1253.715465270662</v>
+        <v>1325.024990191541</v>
       </c>
       <c r="AD9" t="n">
-        <v>1012971.766023847</v>
+        <v>1070588.137038166</v>
       </c>
       <c r="AE9" t="n">
-        <v>1385992.659434143</v>
+        <v>1464825.920110828</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.447901895644389e-06</v>
+        <v>2.809766847169828e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.0693359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1253715.465270662</v>
+        <v>1325024.990191541</v>
       </c>
     </row>
     <row r="10">
@@ -49797,28 +49797,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>979.1900811452547</v>
+        <v>1048.244278097604</v>
       </c>
       <c r="AB10" t="n">
-        <v>1339.771067840498</v>
+        <v>1434.254066566865</v>
       </c>
       <c r="AC10" t="n">
-        <v>1211.905197506304</v>
+        <v>1297.370871441947</v>
       </c>
       <c r="AD10" t="n">
-        <v>979190.0811452547</v>
+        <v>1048244.278097604</v>
       </c>
       <c r="AE10" t="n">
-        <v>1339771.067840498</v>
+        <v>1434254.066566865</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.459719091283193e-06</v>
+        <v>2.832699039352401e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.97981770833333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1211905.197506304</v>
+        <v>1297370.871441948</v>
       </c>
     </row>
     <row r="11">
@@ -49903,28 +49903,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>961.9679645823056</v>
+        <v>1031.022161534655</v>
       </c>
       <c r="AB11" t="n">
-        <v>1316.207008172912</v>
+        <v>1410.690006899278</v>
       </c>
       <c r="AC11" t="n">
-        <v>1190.590058621027</v>
+        <v>1276.05573255667</v>
       </c>
       <c r="AD11" t="n">
-        <v>961967.9645823056</v>
+        <v>1031022.161534655</v>
       </c>
       <c r="AE11" t="n">
-        <v>1316207.008172912</v>
+        <v>1410690.006899278</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.467991128230355e-06</v>
+        <v>2.848751573880203e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.91796875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1190590.058621027</v>
+        <v>1276055.73255667</v>
       </c>
     </row>
     <row r="12">
@@ -50009,28 +50009,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>944.2477200075799</v>
+        <v>1013.30191695993</v>
       </c>
       <c r="AB12" t="n">
-        <v>1291.961387783756</v>
+        <v>1386.444386510122</v>
       </c>
       <c r="AC12" t="n">
-        <v>1168.658406212869</v>
+        <v>1254.124080148513</v>
       </c>
       <c r="AD12" t="n">
-        <v>944247.7200075799</v>
+        <v>1013301.91695993</v>
       </c>
       <c r="AE12" t="n">
-        <v>1291961.387783756</v>
+        <v>1386444.386510122</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.475770782025901e-06</v>
+        <v>2.863848600400397e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.86100260416667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1168658.406212869</v>
+        <v>1254124.080148513</v>
       </c>
     </row>
     <row r="13">
@@ -50115,28 +50115,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>928.7729274845168</v>
+        <v>997.8271244368665</v>
       </c>
       <c r="AB13" t="n">
-        <v>1270.788093954037</v>
+        <v>1365.271092680403</v>
       </c>
       <c r="AC13" t="n">
-        <v>1149.505861829355</v>
+        <v>1234.971535764998</v>
       </c>
       <c r="AD13" t="n">
-        <v>928772.9274845168</v>
+        <v>997827.1244368665</v>
       </c>
       <c r="AE13" t="n">
-        <v>1270788.093954037</v>
+        <v>1365271.092680403</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.481285473324009e-06</v>
+        <v>2.874550290085598e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH13" t="n">
-        <v>1149505.861829355</v>
+        <v>1234971.535764998</v>
       </c>
     </row>
     <row r="14">
@@ -50221,28 +50221,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>912.6515163525959</v>
+        <v>981.7057133049458</v>
       </c>
       <c r="AB14" t="n">
-        <v>1248.730068016879</v>
+        <v>1343.213066743246</v>
       </c>
       <c r="AC14" t="n">
-        <v>1129.553022929006</v>
+        <v>1215.018696864649</v>
       </c>
       <c r="AD14" t="n">
-        <v>912651.5163525959</v>
+        <v>981705.7133049457</v>
       </c>
       <c r="AE14" t="n">
-        <v>1248730.068016879</v>
+        <v>1343213.066743246</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.487095594513087e-06</v>
+        <v>2.885825284575364e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.77799479166667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1129553.022929006</v>
+        <v>1215018.696864649</v>
       </c>
     </row>
     <row r="15">
@@ -50327,28 +50327,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>903.1307372128339</v>
+        <v>972.1849341651837</v>
       </c>
       <c r="AB15" t="n">
-        <v>1235.703317970725</v>
+        <v>1330.186316697092</v>
       </c>
       <c r="AC15" t="n">
-        <v>1117.769527624098</v>
+        <v>1203.235201559742</v>
       </c>
       <c r="AD15" t="n">
-        <v>903130.7372128338</v>
+        <v>972184.9341651837</v>
       </c>
       <c r="AE15" t="n">
-        <v>1235703.317970725</v>
+        <v>1330186.316697092</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.489557510271172e-06</v>
+        <v>2.8906028246134e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.76009114583333</v>
       </c>
       <c r="AH15" t="n">
-        <v>1117769.527624098</v>
+        <v>1203235.201559742</v>
       </c>
     </row>
     <row r="16">
@@ -50433,28 +50433,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>905.3635613970389</v>
+        <v>974.4177583493888</v>
       </c>
       <c r="AB16" t="n">
-        <v>1238.758366524806</v>
+        <v>1333.241365251172</v>
       </c>
       <c r="AC16" t="n">
-        <v>1120.533006631965</v>
+        <v>1205.998680567608</v>
       </c>
       <c r="AD16" t="n">
-        <v>905363.5613970389</v>
+        <v>974417.7583493888</v>
       </c>
       <c r="AE16" t="n">
-        <v>1238758.366524806</v>
+        <v>1333241.365251172</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.490345323313759e-06</v>
+        <v>2.892131637425572e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>1120533.006631965</v>
+        <v>1205998.680567608</v>
       </c>
     </row>
   </sheetData>
@@ -50730,28 +50730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3666.608200241274</v>
+        <v>3810.194235635604</v>
       </c>
       <c r="AB2" t="n">
-        <v>5016.815098907792</v>
+        <v>5213.275847103136</v>
       </c>
       <c r="AC2" t="n">
-        <v>4538.017307012056</v>
+        <v>4715.728117134022</v>
       </c>
       <c r="AD2" t="n">
-        <v>3666608.200241274</v>
+        <v>3810194.235635604</v>
       </c>
       <c r="AE2" t="n">
-        <v>5016815.098907792</v>
+        <v>5213275.847103136</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.876107255094686e-07</v>
+        <v>1.290227422090994e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.46256510416667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4538017.307012056</v>
+        <v>4715728.117134022</v>
       </c>
     </row>
     <row r="3">
@@ -50836,28 +50836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1857.518017395684</v>
+        <v>1953.327322174108</v>
       </c>
       <c r="AB3" t="n">
-        <v>2541.538099312109</v>
+        <v>2672.628616918163</v>
       </c>
       <c r="AC3" t="n">
-        <v>2298.977270184886</v>
+        <v>2417.556692777315</v>
       </c>
       <c r="AD3" t="n">
-        <v>1857518.017395684</v>
+        <v>1953327.322174108</v>
       </c>
       <c r="AE3" t="n">
-        <v>2541538.099312109</v>
+        <v>2672628.616918162</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042423933166093e-06</v>
+        <v>1.955996167771125e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.81608072916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2298977.270184887</v>
+        <v>2417556.692777315</v>
       </c>
     </row>
     <row r="4">
@@ -50942,28 +50942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1537.467187724023</v>
+        <v>1609.388261457321</v>
       </c>
       <c r="AB4" t="n">
-        <v>2103.630434509251</v>
+        <v>2202.036020524988</v>
       </c>
       <c r="AC4" t="n">
-        <v>1902.862898303546</v>
+        <v>1991.876793303048</v>
       </c>
       <c r="AD4" t="n">
-        <v>1537467.187724023</v>
+        <v>1609388.261457321</v>
       </c>
       <c r="AE4" t="n">
-        <v>2103630.434509251</v>
+        <v>2202036.020524988</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.178598566219652e-06</v>
+        <v>2.211513191053015e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.10546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1902862.898303546</v>
+        <v>1991876.793303048</v>
       </c>
     </row>
     <row r="5">
@@ -51048,28 +51048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1395.591106928308</v>
+        <v>1467.426839807034</v>
       </c>
       <c r="AB5" t="n">
-        <v>1909.509321633617</v>
+        <v>2007.798140527156</v>
       </c>
       <c r="AC5" t="n">
-        <v>1727.268431990069</v>
+        <v>1816.176703957633</v>
       </c>
       <c r="AD5" t="n">
-        <v>1395591.106928308</v>
+        <v>1467426.839807034</v>
       </c>
       <c r="AE5" t="n">
-        <v>1909509.321633617</v>
+        <v>2007798.140527156</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.250624034155298e-06</v>
+        <v>2.346661219395144e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1727268.431990069</v>
+        <v>1816176.703957633</v>
       </c>
     </row>
     <row r="6">
@@ -51154,28 +51154,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1311.819651664002</v>
+        <v>1395.55678488373</v>
       </c>
       <c r="AB6" t="n">
-        <v>1794.88952080522</v>
+        <v>1909.462360698044</v>
       </c>
       <c r="AC6" t="n">
-        <v>1623.587784082833</v>
+        <v>1727.225952940277</v>
       </c>
       <c r="AD6" t="n">
-        <v>1311819.651664002</v>
+        <v>1395556.78488373</v>
       </c>
       <c r="AE6" t="n">
-        <v>1794889.52080522</v>
+        <v>1909462.360698044</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294180937689502e-06</v>
+        <v>2.428391054716668e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.93522135416667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1623587.784082833</v>
+        <v>1727225.952940277</v>
       </c>
     </row>
     <row r="7">
@@ -51260,28 +51260,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1262.838106874964</v>
+        <v>1334.759091099711</v>
       </c>
       <c r="AB7" t="n">
-        <v>1727.870810311611</v>
+        <v>1826.276273857799</v>
       </c>
       <c r="AC7" t="n">
-        <v>1562.965245257383</v>
+        <v>1651.979029475659</v>
       </c>
       <c r="AD7" t="n">
-        <v>1262838.106874964</v>
+        <v>1334759.09109971</v>
       </c>
       <c r="AE7" t="n">
-        <v>1727870.810311611</v>
+        <v>1826276.273857799</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.324832092028387e-06</v>
+        <v>2.485904642535518e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.65852864583333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1562965.245257383</v>
+        <v>1651979.029475659</v>
       </c>
     </row>
     <row r="8">
@@ -51366,28 +51366,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1228.047127519448</v>
+        <v>1299.797519543603</v>
       </c>
       <c r="AB8" t="n">
-        <v>1680.268257487711</v>
+        <v>1778.440309259053</v>
       </c>
       <c r="AC8" t="n">
-        <v>1519.905813264395</v>
+        <v>1608.708462200019</v>
       </c>
       <c r="AD8" t="n">
-        <v>1228047.127519448</v>
+        <v>1299797.519543603</v>
       </c>
       <c r="AE8" t="n">
-        <v>1680268.257487711</v>
+        <v>1778440.309259053</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.346563096188153e-06</v>
+        <v>2.52668052987458e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.4697265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1519905.813264394</v>
+        <v>1608708.462200019</v>
       </c>
     </row>
     <row r="9">
@@ -51472,28 +51472,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1199.036466073323</v>
+        <v>1270.786858097478</v>
       </c>
       <c r="AB9" t="n">
-        <v>1640.574590637068</v>
+        <v>1738.74664240841</v>
       </c>
       <c r="AC9" t="n">
-        <v>1484.000454267565</v>
+        <v>1572.80310320319</v>
       </c>
       <c r="AD9" t="n">
-        <v>1199036.466073324</v>
+        <v>1270786.858097478</v>
       </c>
       <c r="AE9" t="n">
-        <v>1640574.590637068</v>
+        <v>1738746.64240841</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.364118710902375e-06</v>
+        <v>2.559621748903952e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.3232421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1484000.454267565</v>
+        <v>1572803.10320319</v>
       </c>
     </row>
     <row r="10">
@@ -51578,28 +51578,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1176.596514303269</v>
+        <v>1236.530757332443</v>
       </c>
       <c r="AB10" t="n">
-        <v>1609.871258644478</v>
+        <v>1691.875934069183</v>
       </c>
       <c r="AC10" t="n">
-        <v>1456.227405187951</v>
+        <v>1530.405669484407</v>
       </c>
       <c r="AD10" t="n">
-        <v>1176596.51430327</v>
+        <v>1236530.757332443</v>
       </c>
       <c r="AE10" t="n">
-        <v>1609871.258644478</v>
+        <v>1691875.934069183</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.377024460097695e-06</v>
+        <v>2.583837996406626e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.2158203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>1456227.405187951</v>
+        <v>1530405.669484407</v>
       </c>
     </row>
     <row r="11">
@@ -51684,28 +51684,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1155.161114689309</v>
+        <v>1215.095357718483</v>
       </c>
       <c r="AB11" t="n">
-        <v>1580.542399229568</v>
+        <v>1662.547074654273</v>
       </c>
       <c r="AC11" t="n">
-        <v>1429.697650952287</v>
+        <v>1503.875915248743</v>
       </c>
       <c r="AD11" t="n">
-        <v>1155161.114689309</v>
+        <v>1215095.357718483</v>
       </c>
       <c r="AE11" t="n">
-        <v>1580542.399229568</v>
+        <v>1662547.074654273</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.389076152360972e-06</v>
+        <v>2.606451698118682e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.11979166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1429697.650952287</v>
+        <v>1503875.915248743</v>
       </c>
     </row>
     <row r="12">
@@ -51790,28 +51790,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1140.590074041604</v>
+        <v>1200.524317070777</v>
       </c>
       <c r="AB12" t="n">
-        <v>1560.605658586432</v>
+        <v>1642.610334011138</v>
       </c>
       <c r="AC12" t="n">
-        <v>1411.663644854741</v>
+        <v>1485.841909151197</v>
       </c>
       <c r="AD12" t="n">
-        <v>1140590.074041604</v>
+        <v>1200524.317070777</v>
       </c>
       <c r="AE12" t="n">
-        <v>1560605.658586432</v>
+        <v>1642610.334011138</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.396288188676003e-06</v>
+        <v>2.619984307017235e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.06119791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1411663.644854741</v>
+        <v>1485841.909151197</v>
       </c>
     </row>
     <row r="13">
@@ -51896,28 +51896,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1111.801777877216</v>
+        <v>1183.637421247391</v>
       </c>
       <c r="AB13" t="n">
-        <v>1521.216241724326</v>
+        <v>1619.504938148317</v>
       </c>
       <c r="AC13" t="n">
-        <v>1376.03349865456</v>
+        <v>1464.941659840897</v>
       </c>
       <c r="AD13" t="n">
-        <v>1111801.777877216</v>
+        <v>1183637.421247391</v>
       </c>
       <c r="AE13" t="n">
-        <v>1521216.241724326</v>
+        <v>1619504.938148317</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.404164491493735e-06</v>
+        <v>2.634763340419602e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.99934895833333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1376033.49865456</v>
+        <v>1464941.659840897</v>
       </c>
     </row>
     <row r="14">
@@ -52002,28 +52002,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1098.887769959794</v>
+        <v>1170.72341332997</v>
       </c>
       <c r="AB14" t="n">
-        <v>1503.54672636589</v>
+        <v>1601.835422789881</v>
       </c>
       <c r="AC14" t="n">
-        <v>1360.050337042613</v>
+        <v>1448.95849822895</v>
       </c>
       <c r="AD14" t="n">
-        <v>1098887.769959794</v>
+        <v>1170723.41332997</v>
       </c>
       <c r="AE14" t="n">
-        <v>1503546.72636589</v>
+        <v>1601835.422789881</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.409858204374024e-06</v>
+        <v>2.645446979023723e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.95540364583333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1360050.337042613</v>
+        <v>1448958.49822895</v>
       </c>
     </row>
     <row r="15">
@@ -52108,28 +52108,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1085.27031378079</v>
+        <v>1157.105957150965</v>
       </c>
       <c r="AB15" t="n">
-        <v>1484.914722062009</v>
+        <v>1583.203418486</v>
       </c>
       <c r="AC15" t="n">
-        <v>1343.196545079312</v>
+        <v>1432.104706265649</v>
       </c>
       <c r="AD15" t="n">
-        <v>1085270.31378079</v>
+        <v>1157105.957150965</v>
       </c>
       <c r="AE15" t="n">
-        <v>1484914.722062009</v>
+        <v>1583203.418486</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.415836602898326e-06</v>
+        <v>2.65666479955805e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.90983072916667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1343196.545079312</v>
+        <v>1432104.706265649</v>
       </c>
     </row>
     <row r="16">
@@ -52214,28 +52214,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>1073.017272575488</v>
+        <v>1144.852915945664</v>
       </c>
       <c r="AB16" t="n">
-        <v>1468.149570518889</v>
+        <v>1566.438266942879</v>
       </c>
       <c r="AC16" t="n">
-        <v>1328.031436069429</v>
+        <v>1416.939597255766</v>
       </c>
       <c r="AD16" t="n">
-        <v>1073017.272575488</v>
+        <v>1144852.915945664</v>
       </c>
       <c r="AE16" t="n">
-        <v>1468149.570518889</v>
+        <v>1566438.266942879</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.420960944490586e-06</v>
+        <v>2.666280074301759e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.869140625</v>
       </c>
       <c r="AH16" t="n">
-        <v>1328031.436069429</v>
+        <v>1416939.597255766</v>
       </c>
     </row>
     <row r="17">
@@ -52320,28 +52320,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>1060.091513036286</v>
+        <v>1131.927156406461</v>
       </c>
       <c r="AB17" t="n">
-        <v>1450.463976073087</v>
+        <v>1548.752672497078</v>
       </c>
       <c r="AC17" t="n">
-        <v>1312.033729935647</v>
+        <v>1400.941891121984</v>
       </c>
       <c r="AD17" t="n">
-        <v>1060091.513036286</v>
+        <v>1131927.156406461</v>
       </c>
       <c r="AE17" t="n">
-        <v>1450463.976073087</v>
+        <v>1548752.672497078</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.42580060043883e-06</v>
+        <v>2.675361167115261e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>1312033.729935647</v>
+        <v>1400941.891121984</v>
       </c>
     </row>
     <row r="18">
@@ -52426,28 +52426,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>1049.713149976495</v>
+        <v>1121.54879334667</v>
       </c>
       <c r="AB18" t="n">
-        <v>1436.263841873616</v>
+        <v>1534.552538297607</v>
       </c>
       <c r="AC18" t="n">
-        <v>1299.18883661416</v>
+        <v>1388.096997800497</v>
       </c>
       <c r="AD18" t="n">
-        <v>1049713.149976495</v>
+        <v>1121548.79334667</v>
       </c>
       <c r="AE18" t="n">
-        <v>1436263.841873616</v>
+        <v>1534552.538297607</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.428837247308318e-06</v>
+        <v>2.681059107704126e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.810546875</v>
       </c>
       <c r="AH18" t="n">
-        <v>1299188.83661416</v>
+        <v>1388096.997800497</v>
       </c>
     </row>
     <row r="19">
@@ -52532,28 +52532,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>1039.22230946216</v>
+        <v>1111.057952832336</v>
       </c>
       <c r="AB19" t="n">
-        <v>1421.909811058685</v>
+        <v>1520.198507482676</v>
       </c>
       <c r="AC19" t="n">
-        <v>1286.204734354197</v>
+        <v>1375.112895540534</v>
       </c>
       <c r="AD19" t="n">
-        <v>1039222.30946216</v>
+        <v>1111057.952832336</v>
       </c>
       <c r="AE19" t="n">
-        <v>1421909.811058685</v>
+        <v>1520198.507482676</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.432348370251162e-06</v>
+        <v>2.68764735151e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.78287760416667</v>
       </c>
       <c r="AH19" t="n">
-        <v>1286204.734354197</v>
+        <v>1375112.895540534</v>
       </c>
     </row>
     <row r="20">
@@ -52638,28 +52638,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>1028.547262289767</v>
+        <v>1100.382905659942</v>
       </c>
       <c r="AB20" t="n">
-        <v>1407.303740567573</v>
+        <v>1505.592436991564</v>
       </c>
       <c r="AC20" t="n">
-        <v>1272.992646731008</v>
+        <v>1361.900807917345</v>
       </c>
       <c r="AD20" t="n">
-        <v>1028547.262289767</v>
+        <v>1100382.905659942</v>
       </c>
       <c r="AE20" t="n">
-        <v>1407303.740567573</v>
+        <v>1505592.436991564</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.435005436261963e-06</v>
+        <v>2.692633049525257e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.76334635416667</v>
       </c>
       <c r="AH20" t="n">
-        <v>1272992.646731008</v>
+        <v>1361900.807917345</v>
       </c>
     </row>
     <row r="21">
@@ -52744,28 +52744,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>1015.635546641947</v>
+        <v>1087.471190012123</v>
       </c>
       <c r="AB21" t="n">
-        <v>1389.637361593534</v>
+        <v>1487.926058017525</v>
       </c>
       <c r="AC21" t="n">
-        <v>1257.012322171333</v>
+        <v>1345.92048335767</v>
       </c>
       <c r="AD21" t="n">
-        <v>1015635.546641947</v>
+        <v>1087471.190012123</v>
       </c>
       <c r="AE21" t="n">
-        <v>1389637.361593534</v>
+        <v>1487926.058017525</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.43804208313145e-06</v>
+        <v>2.698330990114121e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.74055989583333</v>
       </c>
       <c r="AH21" t="n">
-        <v>1257012.322171333</v>
+        <v>1345920.48335767</v>
       </c>
     </row>
     <row r="22">
@@ -52850,28 +52850,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>1014.315572051069</v>
+        <v>1086.151215421244</v>
       </c>
       <c r="AB22" t="n">
-        <v>1387.831314125125</v>
+        <v>1486.120010549115</v>
       </c>
       <c r="AC22" t="n">
-        <v>1255.378641338505</v>
+        <v>1344.286802524842</v>
       </c>
       <c r="AD22" t="n">
-        <v>1014315.572051069</v>
+        <v>1086151.215421244</v>
       </c>
       <c r="AE22" t="n">
-        <v>1387831.314125125</v>
+        <v>1486120.010549115</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.437662502272764e-06</v>
+        <v>2.697618747540513e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>11</v>
+        <v>10.74381510416667</v>
       </c>
       <c r="AH22" t="n">
-        <v>1255378.641338505</v>
+        <v>1344286.802524842</v>
       </c>
     </row>
     <row r="23">
@@ -52956,28 +52956,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>1017.652008648793</v>
+        <v>1089.487652018968</v>
       </c>
       <c r="AB23" t="n">
-        <v>1392.396373871325</v>
+        <v>1490.685070295316</v>
       </c>
       <c r="AC23" t="n">
-        <v>1259.50801818963</v>
+        <v>1348.416179375967</v>
       </c>
       <c r="AD23" t="n">
-        <v>1017652.008648793</v>
+        <v>1089487.652018968</v>
       </c>
       <c r="AE23" t="n">
-        <v>1392396.373871325</v>
+        <v>1490685.070295316</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.437472711843421e-06</v>
+        <v>2.697262626253709e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>10.74381510416667</v>
       </c>
       <c r="AH23" t="n">
-        <v>1259508.01818963</v>
+        <v>1348416.179375967</v>
       </c>
     </row>
   </sheetData>
@@ -53253,28 +53253,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>459.9702569481526</v>
+        <v>514.8461633815323</v>
       </c>
       <c r="AB2" t="n">
-        <v>629.3515980120301</v>
+        <v>704.4352341483097</v>
       </c>
       <c r="AC2" t="n">
-        <v>569.2871647982768</v>
+        <v>637.204924082255</v>
       </c>
       <c r="AD2" t="n">
-        <v>459970.2569481526</v>
+        <v>514846.1633815323</v>
       </c>
       <c r="AE2" t="n">
-        <v>629351.5980120301</v>
+        <v>704435.2341483098</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.645266144797278e-06</v>
+        <v>4.114685769660797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.06217447916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>569287.1647982767</v>
+        <v>637204.924082255</v>
       </c>
     </row>
   </sheetData>
@@ -53550,28 +53550,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1531.938667005479</v>
+        <v>1618.450242800222</v>
       </c>
       <c r="AB2" t="n">
-        <v>2096.066068561019</v>
+        <v>2214.435023184748</v>
       </c>
       <c r="AC2" t="n">
-        <v>1896.020464824759</v>
+        <v>2003.09245255107</v>
       </c>
       <c r="AD2" t="n">
-        <v>1531938.667005479</v>
+        <v>1618450.242800222</v>
       </c>
       <c r="AE2" t="n">
-        <v>2096066.068561019</v>
+        <v>2214435.023184748</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.088595289847302e-06</v>
+        <v>2.241726272968988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1896020.464824759</v>
+        <v>2003092.45255107</v>
       </c>
     </row>
     <row r="3">
@@ -53656,28 +53656,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1050.582209840615</v>
+        <v>1115.551232541244</v>
       </c>
       <c r="AB3" t="n">
-        <v>1437.452927919921</v>
+        <v>1526.346411009915</v>
       </c>
       <c r="AC3" t="n">
-        <v>1300.264437957099</v>
+        <v>1380.674051783771</v>
       </c>
       <c r="AD3" t="n">
-        <v>1050582.209840615</v>
+        <v>1115551.232541244</v>
       </c>
       <c r="AE3" t="n">
-        <v>1437452.927919921</v>
+        <v>1526346.411009915</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.359698993943298e-06</v>
+        <v>2.800005646248706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.51139322916667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1300264.437957099</v>
+        <v>1380674.051783771</v>
       </c>
     </row>
     <row r="4">
@@ -53762,28 +53762,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>924.1610256280154</v>
+        <v>989.044707474073</v>
       </c>
       <c r="AB4" t="n">
-        <v>1264.477886371222</v>
+        <v>1353.254602339018</v>
       </c>
       <c r="AC4" t="n">
-        <v>1143.797891601811</v>
+        <v>1224.101882396545</v>
       </c>
       <c r="AD4" t="n">
-        <v>924161.0256280154</v>
+        <v>989044.707474073</v>
       </c>
       <c r="AE4" t="n">
-        <v>1264477.886371222</v>
+        <v>1353254.602339018</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.45658146645563e-06</v>
+        <v>2.999514119275036e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.67805989583333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1143797.891601811</v>
+        <v>1224101.882396545</v>
       </c>
     </row>
     <row r="5">
@@ -53868,28 +53868,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>867.0891487853863</v>
+        <v>931.8022384308517</v>
       </c>
       <c r="AB5" t="n">
-        <v>1186.38962664163</v>
+        <v>1274.932930834579</v>
       </c>
       <c r="AC5" t="n">
-        <v>1073.162265783251</v>
+        <v>1153.255121295333</v>
       </c>
       <c r="AD5" t="n">
-        <v>867089.1487853864</v>
+        <v>931802.2384308517</v>
       </c>
       <c r="AE5" t="n">
-        <v>1186389.62664163</v>
+        <v>1274932.930834579</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.50444788761059e-06</v>
+        <v>3.098084648558811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.30696614583333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1073162.265783251</v>
+        <v>1153255.121295333</v>
       </c>
     </row>
     <row r="6">
@@ -53974,28 +53974,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>827.2514314714907</v>
+        <v>881.3212558517565</v>
       </c>
       <c r="AB6" t="n">
-        <v>1131.88190429671</v>
+        <v>1205.862623406088</v>
       </c>
       <c r="AC6" t="n">
-        <v>1023.856683956861</v>
+        <v>1090.776787067032</v>
       </c>
       <c r="AD6" t="n">
-        <v>827251.4314714908</v>
+        <v>881321.2558517565</v>
       </c>
       <c r="AE6" t="n">
-        <v>1131881.90429671</v>
+        <v>1205862.623406088</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.534338272873294e-06</v>
+        <v>3.159637424487107e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.08723958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1023856.683956861</v>
+        <v>1090776.787067032</v>
       </c>
     </row>
     <row r="7">
@@ -54080,28 +54080,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>786.3305173521089</v>
+        <v>851.1288583435949</v>
       </c>
       <c r="AB7" t="n">
-        <v>1075.892104295252</v>
+        <v>1164.552053140851</v>
       </c>
       <c r="AC7" t="n">
-        <v>973.2104718853651</v>
+        <v>1053.40883964816</v>
       </c>
       <c r="AD7" t="n">
-        <v>786330.517352109</v>
+        <v>851128.8583435948</v>
       </c>
       <c r="AE7" t="n">
-        <v>1075892.104295252</v>
+        <v>1164552.053140851</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.553568450804545e-06</v>
+        <v>3.199237811797619e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.94889322916667</v>
       </c>
       <c r="AH7" t="n">
-        <v>973210.4718853651</v>
+        <v>1053408.839648159</v>
       </c>
     </row>
     <row r="8">
@@ -54186,28 +54186,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>759.2810266658597</v>
+        <v>824.0793676573456</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038.881797799019</v>
+        <v>1127.541746644617</v>
       </c>
       <c r="AC8" t="n">
-        <v>939.7323770968405</v>
+        <v>1019.930744859635</v>
       </c>
       <c r="AD8" t="n">
-        <v>759281.0266658597</v>
+        <v>824079.3676573456</v>
       </c>
       <c r="AE8" t="n">
-        <v>1038881.797799019</v>
+        <v>1127541.746644617</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.568827178945646e-06</v>
+        <v>3.230659858250525e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.84309895833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>939732.3770968405</v>
+        <v>1019930.744859635</v>
       </c>
     </row>
     <row r="9">
@@ -54292,28 +54292,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>759.8631345301915</v>
+        <v>824.6614755216773</v>
       </c>
       <c r="AB9" t="n">
-        <v>1039.678263459784</v>
+        <v>1128.338212305382</v>
       </c>
       <c r="AC9" t="n">
-        <v>940.4528291927888</v>
+        <v>1020.651196955583</v>
       </c>
       <c r="AD9" t="n">
-        <v>759863.1345301914</v>
+        <v>824661.4755216773</v>
       </c>
       <c r="AE9" t="n">
-        <v>1039678.263459784</v>
+        <v>1128338.212305382</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.569245226291977e-06</v>
+        <v>3.231520736235536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.83984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>940452.8291927888</v>
+        <v>1020651.196955583</v>
       </c>
     </row>
   </sheetData>
@@ -54589,28 +54589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2088.755970623436</v>
+        <v>2190.107736582398</v>
       </c>
       <c r="AB2" t="n">
-        <v>2857.928068416829</v>
+        <v>2996.602025926225</v>
       </c>
       <c r="AC2" t="n">
-        <v>2585.171424694363</v>
+        <v>2710.610534329183</v>
       </c>
       <c r="AD2" t="n">
-        <v>2088755.970623435</v>
+        <v>2190107.736582397</v>
       </c>
       <c r="AE2" t="n">
-        <v>2857928.068416829</v>
+        <v>2996602.025926224</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.324686806737276e-07</v>
+        <v>1.847392134885884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5634765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>2585171.424694363</v>
+        <v>2710610.534329183</v>
       </c>
     </row>
     <row r="3">
@@ -54695,28 +54695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1309.499631199949</v>
+        <v>1388.158190300772</v>
       </c>
       <c r="AB3" t="n">
-        <v>1791.715166454224</v>
+        <v>1899.339277186684</v>
       </c>
       <c r="AC3" t="n">
-        <v>1620.716385655862</v>
+        <v>1718.069002311405</v>
       </c>
       <c r="AD3" t="n">
-        <v>1309499.631199949</v>
+        <v>1388158.190300772</v>
       </c>
       <c r="AE3" t="n">
-        <v>1791715.166454224</v>
+        <v>1899339.277186684</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.237857959387957e-06</v>
+        <v>2.452424521783333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.23079427083333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1620716.385655862</v>
+        <v>1718069.002311405</v>
       </c>
     </row>
     <row r="4">
@@ -54801,28 +54801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1134.051116704126</v>
+        <v>1201.533709330747</v>
       </c>
       <c r="AB4" t="n">
-        <v>1551.658768678858</v>
+        <v>1643.991429032473</v>
       </c>
       <c r="AC4" t="n">
-        <v>1403.570633562907</v>
+        <v>1487.091194402075</v>
       </c>
       <c r="AD4" t="n">
-        <v>1134051.116704126</v>
+        <v>1201533.709330747</v>
       </c>
       <c r="AE4" t="n">
-        <v>1551658.768678858</v>
+        <v>1643991.429032473</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.348542706203658e-06</v>
+        <v>2.671711383591304e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.14518229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1403570.633562907</v>
+        <v>1487091.194402075</v>
       </c>
     </row>
     <row r="5">
@@ -54907,28 +54907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1047.0436837357</v>
+        <v>1114.611527708341</v>
       </c>
       <c r="AB5" t="n">
-        <v>1432.611360394422</v>
+        <v>1525.060665400686</v>
       </c>
       <c r="AC5" t="n">
-        <v>1295.88494284105</v>
+        <v>1379.51101593093</v>
       </c>
       <c r="AD5" t="n">
-        <v>1047043.6837357</v>
+        <v>1114611.527708341</v>
       </c>
       <c r="AE5" t="n">
-        <v>1432611.360394422</v>
+        <v>1525060.665400686</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.405092549576771e-06</v>
+        <v>2.783747034805923e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.6552734375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1295884.94284105</v>
+        <v>1379511.01593093</v>
       </c>
     </row>
     <row r="6">
@@ -55013,28 +55013,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>997.7635463781322</v>
+        <v>1065.160798150181</v>
       </c>
       <c r="AB6" t="n">
-        <v>1365.184102375577</v>
+        <v>1457.399995606994</v>
       </c>
       <c r="AC6" t="n">
-        <v>1234.892847692773</v>
+        <v>1318.307785500002</v>
       </c>
       <c r="AD6" t="n">
-        <v>997763.5463781322</v>
+        <v>1065160.798150181</v>
       </c>
       <c r="AE6" t="n">
-        <v>1365184.102375577</v>
+        <v>1457399.995606994</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.442121628511478e-06</v>
+        <v>2.857108457665317e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.35579427083333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1234892.847692773</v>
+        <v>1318307.785500002</v>
       </c>
     </row>
     <row r="7">
@@ -55119,28 +55119,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>963.6125531169756</v>
+        <v>1019.919179269394</v>
       </c>
       <c r="AB7" t="n">
-        <v>1318.457206760173</v>
+        <v>1395.498416734941</v>
       </c>
       <c r="AC7" t="n">
-        <v>1192.625501413293</v>
+        <v>1262.314006436087</v>
       </c>
       <c r="AD7" t="n">
-        <v>963612.5531169756</v>
+        <v>1019919.179269394</v>
       </c>
       <c r="AE7" t="n">
-        <v>1318457.206760173</v>
+        <v>1395498.416734941</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.465667292834091e-06</v>
+        <v>2.903756753722649e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.17350260416667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1192625.501413293</v>
+        <v>1262314.006436087</v>
       </c>
     </row>
     <row r="8">
@@ -55225,28 +55225,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>937.3482444385443</v>
+        <v>993.6548705909631</v>
       </c>
       <c r="AB8" t="n">
-        <v>1282.521220926821</v>
+        <v>1359.562430901589</v>
       </c>
       <c r="AC8" t="n">
-        <v>1160.119195631403</v>
+        <v>1229.807700654197</v>
       </c>
       <c r="AD8" t="n">
-        <v>937348.2444385443</v>
+        <v>993654.8705909632</v>
       </c>
       <c r="AE8" t="n">
-        <v>1282521.220926821</v>
+        <v>1359562.430901589</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.482068759862236e-06</v>
+        <v>2.93625107960874e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.05143229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1160119.195631403</v>
+        <v>1229807.700654197</v>
       </c>
     </row>
     <row r="9">
@@ -55331,28 +55331,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>901.9004826150643</v>
+        <v>969.3829857331342</v>
       </c>
       <c r="AB9" t="n">
-        <v>1234.020029355055</v>
+        <v>1326.352567239121</v>
       </c>
       <c r="AC9" t="n">
-        <v>1116.246889711397</v>
+        <v>1199.767339769338</v>
       </c>
       <c r="AD9" t="n">
-        <v>901900.4826150644</v>
+        <v>969382.9857331342</v>
       </c>
       <c r="AE9" t="n">
-        <v>1234020.029355055</v>
+        <v>1326352.567239121</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.49575341946854e-06</v>
+        <v>2.963362909795907e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.94889322916667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1116246.889711397</v>
+        <v>1199767.339769338</v>
       </c>
     </row>
     <row r="10">
@@ -55437,28 +55437,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>881.4179228965137</v>
+        <v>948.9004260145837</v>
       </c>
       <c r="AB10" t="n">
-        <v>1205.994887521374</v>
+        <v>1298.32742540544</v>
       </c>
       <c r="AC10" t="n">
-        <v>1090.896428080789</v>
+        <v>1174.41687813873</v>
       </c>
       <c r="AD10" t="n">
-        <v>881417.9228965137</v>
+        <v>948900.4260145837</v>
       </c>
       <c r="AE10" t="n">
-        <v>1205994.887521374</v>
+        <v>1298327.42540544</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.505513801687743e-06</v>
+        <v>2.982700023973519e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.87727864583333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1090896.428080789</v>
+        <v>1174416.878138731</v>
       </c>
     </row>
     <row r="11">
@@ -55543,28 +55543,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>861.5915863289785</v>
+        <v>929.074089447048</v>
       </c>
       <c r="AB11" t="n">
-        <v>1178.867619153434</v>
+        <v>1271.200157037501</v>
       </c>
       <c r="AC11" t="n">
-        <v>1066.358148132525</v>
+        <v>1149.878598190467</v>
       </c>
       <c r="AD11" t="n">
-        <v>861591.5863289784</v>
+        <v>929074.089447048</v>
       </c>
       <c r="AE11" t="n">
-        <v>1178867.619153434</v>
+        <v>1271200.157037501</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.514670448924315e-06</v>
+        <v>3.000841027995815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.81217447916667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1066358.148132525</v>
+        <v>1149878.598190467</v>
       </c>
     </row>
     <row r="12">
@@ -55649,28 +55649,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>847.9687871450074</v>
+        <v>915.4512902630772</v>
       </c>
       <c r="AB12" t="n">
-        <v>1160.228304314441</v>
+        <v>1252.560842198507</v>
       </c>
       <c r="AC12" t="n">
-        <v>1049.497743341323</v>
+        <v>1133.018193399264</v>
       </c>
       <c r="AD12" t="n">
-        <v>847968.7871450074</v>
+        <v>915451.2902630772</v>
       </c>
       <c r="AE12" t="n">
-        <v>1160228.304314442</v>
+        <v>1252560.842198507</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.519600951282469e-06</v>
+        <v>3.010609260930897e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.77799479166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>1049497.743341323</v>
+        <v>1133018.193399264</v>
       </c>
     </row>
     <row r="13">
@@ -55755,28 +55755,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>849.6623055625879</v>
+        <v>917.1448086806577</v>
       </c>
       <c r="AB13" t="n">
-        <v>1162.545450926135</v>
+        <v>1254.877988810201</v>
       </c>
       <c r="AC13" t="n">
-        <v>1051.593744732532</v>
+        <v>1135.114194790473</v>
       </c>
       <c r="AD13" t="n">
-        <v>849662.3055625879</v>
+        <v>917144.8086806576</v>
       </c>
       <c r="AE13" t="n">
-        <v>1162545.450926135</v>
+        <v>1254877.988810201</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.518795971305627e-06</v>
+        <v>3.009014447390476e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.78287760416667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1051593.744732532</v>
+        <v>1135114.194790473</v>
       </c>
     </row>
   </sheetData>
